--- a/Datos/Datos Asignación 2/Procesados/datos_procesados_local_amb.xlsx
+++ b/Datos/Datos Asignación 2/Procesados/datos_procesados_local_amb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USUARIO\Desktop\UNIVERSIDAD\1 CUARTO SEMESTRE\MÉTODOS MATEMÁTICOS PARA FÍSICOS\Asignacion 2 Sensores climáticos\Data\Procesados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B37447-488E-4E55-881C-F43FB4E7C21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DAB1D6-56AB-486F-814E-234DE78CF711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="5">
   <si>
-    <t>Date&amp;Time</t>
-  </si>
-  <si>
     <t>NoData</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>PM2.5 UG/M3</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
   <dimension ref="A1:B8031"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,10 +451,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -27342,7 +27342,7 @@
         <v>43514.208333333343</v>
       </c>
       <c r="B3362" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3363" spans="1:2" x14ac:dyDescent="0.3">
@@ -27350,7 +27350,7 @@
         <v>43514.25</v>
       </c>
       <c r="B3363" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3364" spans="1:2" x14ac:dyDescent="0.3">
@@ -27358,7 +27358,7 @@
         <v>43514.291666666657</v>
       </c>
       <c r="B3364" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3365" spans="1:2" x14ac:dyDescent="0.3">
@@ -27366,7 +27366,7 @@
         <v>43514.333333333343</v>
       </c>
       <c r="B3365" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3366" spans="1:2" x14ac:dyDescent="0.3">
@@ -27374,7 +27374,7 @@
         <v>43514.375</v>
       </c>
       <c r="B3366" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3367" spans="1:2" x14ac:dyDescent="0.3">
@@ -27382,7 +27382,7 @@
         <v>43514.416666666657</v>
       </c>
       <c r="B3367" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3368" spans="1:2" x14ac:dyDescent="0.3">
@@ -27390,7 +27390,7 @@
         <v>43514.458333333343</v>
       </c>
       <c r="B3368" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3369" spans="1:2" x14ac:dyDescent="0.3">
@@ -27398,7 +27398,7 @@
         <v>43514.5</v>
       </c>
       <c r="B3369" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3370" spans="1:2" x14ac:dyDescent="0.3">
@@ -27406,7 +27406,7 @@
         <v>43514.541666666657</v>
       </c>
       <c r="B3370" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3371" spans="1:2" x14ac:dyDescent="0.3">
@@ -27414,7 +27414,7 @@
         <v>43514.583333333343</v>
       </c>
       <c r="B3371" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3372" spans="1:2" x14ac:dyDescent="0.3">
@@ -27422,7 +27422,7 @@
         <v>43514.625</v>
       </c>
       <c r="B3372" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3373" spans="1:2" x14ac:dyDescent="0.3">
@@ -27430,7 +27430,7 @@
         <v>43514.666666666657</v>
       </c>
       <c r="B3373" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3374" spans="1:2" x14ac:dyDescent="0.3">
@@ -27438,7 +27438,7 @@
         <v>43514.708333333343</v>
       </c>
       <c r="B3374" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3375" spans="1:2" x14ac:dyDescent="0.3">
@@ -27446,7 +27446,7 @@
         <v>43514.75</v>
       </c>
       <c r="B3375" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3376" spans="1:2" x14ac:dyDescent="0.3">
@@ -27454,7 +27454,7 @@
         <v>43514.791666666657</v>
       </c>
       <c r="B3376" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3377" spans="1:2" x14ac:dyDescent="0.3">
@@ -27462,7 +27462,7 @@
         <v>43514.833333333343</v>
       </c>
       <c r="B3377" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3378" spans="1:2" x14ac:dyDescent="0.3">
@@ -27470,7 +27470,7 @@
         <v>43514.875</v>
       </c>
       <c r="B3378" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3379" spans="1:2" x14ac:dyDescent="0.3">
@@ -27478,7 +27478,7 @@
         <v>43514.916666666657</v>
       </c>
       <c r="B3379" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3380" spans="1:2" x14ac:dyDescent="0.3">
@@ -27486,7 +27486,7 @@
         <v>43514.958333333343</v>
       </c>
       <c r="B3380" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3381" spans="1:2" x14ac:dyDescent="0.3">
@@ -27494,7 +27494,7 @@
         <v>43515</v>
       </c>
       <c r="B3381" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3382" spans="1:2" x14ac:dyDescent="0.3">
@@ -27502,7 +27502,7 @@
         <v>43515.041666666657</v>
       </c>
       <c r="B3382" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3383" spans="1:2" x14ac:dyDescent="0.3">
@@ -27510,7 +27510,7 @@
         <v>43515.083333333343</v>
       </c>
       <c r="B3383" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3384" spans="1:2" x14ac:dyDescent="0.3">
@@ -27518,7 +27518,7 @@
         <v>43515.125</v>
       </c>
       <c r="B3384" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3385" spans="1:2" x14ac:dyDescent="0.3">
@@ -27526,7 +27526,7 @@
         <v>43515.166666666657</v>
       </c>
       <c r="B3385" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3386" spans="1:2" x14ac:dyDescent="0.3">
@@ -27534,7 +27534,7 @@
         <v>43515.208333333343</v>
       </c>
       <c r="B3386" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3387" spans="1:2" x14ac:dyDescent="0.3">
@@ -27542,7 +27542,7 @@
         <v>43515.25</v>
       </c>
       <c r="B3387" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3388" spans="1:2" x14ac:dyDescent="0.3">
@@ -27550,7 +27550,7 @@
         <v>43515.291666666657</v>
       </c>
       <c r="B3388" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3389" spans="1:2" x14ac:dyDescent="0.3">
@@ -27558,7 +27558,7 @@
         <v>43515.333333333343</v>
       </c>
       <c r="B3389" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3390" spans="1:2" x14ac:dyDescent="0.3">
@@ -27566,7 +27566,7 @@
         <v>43515.375</v>
       </c>
       <c r="B3390" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3391" spans="1:2" x14ac:dyDescent="0.3">
@@ -27574,7 +27574,7 @@
         <v>43515.416666666657</v>
       </c>
       <c r="B3391" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3392" spans="1:2" x14ac:dyDescent="0.3">
@@ -27582,7 +27582,7 @@
         <v>43515.458333333343</v>
       </c>
       <c r="B3392" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3393" spans="1:2" x14ac:dyDescent="0.3">
@@ -27590,7 +27590,7 @@
         <v>43515.5</v>
       </c>
       <c r="B3393" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3394" spans="1:2" x14ac:dyDescent="0.3">
@@ -27598,7 +27598,7 @@
         <v>43515.541666666657</v>
       </c>
       <c r="B3394" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3395" spans="1:2" x14ac:dyDescent="0.3">
@@ -27606,7 +27606,7 @@
         <v>43515.583333333343</v>
       </c>
       <c r="B3395" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3396" spans="1:2" x14ac:dyDescent="0.3">
@@ -27614,7 +27614,7 @@
         <v>43515.625</v>
       </c>
       <c r="B3396" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3397" spans="1:2" x14ac:dyDescent="0.3">
@@ -27622,7 +27622,7 @@
         <v>43515.666666666657</v>
       </c>
       <c r="B3397" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3398" spans="1:2" x14ac:dyDescent="0.3">
@@ -27630,7 +27630,7 @@
         <v>43515.708333333343</v>
       </c>
       <c r="B3398" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3399" spans="1:2" x14ac:dyDescent="0.3">
@@ -27638,7 +27638,7 @@
         <v>43515.75</v>
       </c>
       <c r="B3399" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3400" spans="1:2" x14ac:dyDescent="0.3">
@@ -27646,7 +27646,7 @@
         <v>43515.791666666657</v>
       </c>
       <c r="B3400" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3401" spans="1:2" x14ac:dyDescent="0.3">
@@ -27654,7 +27654,7 @@
         <v>43515.833333333343</v>
       </c>
       <c r="B3401" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3402" spans="1:2" x14ac:dyDescent="0.3">
@@ -27662,7 +27662,7 @@
         <v>43515.875</v>
       </c>
       <c r="B3402" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3403" spans="1:2" x14ac:dyDescent="0.3">
@@ -27670,7 +27670,7 @@
         <v>43515.916666666657</v>
       </c>
       <c r="B3403" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3404" spans="1:2" x14ac:dyDescent="0.3">
@@ -27678,7 +27678,7 @@
         <v>43515.958333333343</v>
       </c>
       <c r="B3404" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3405" spans="1:2" x14ac:dyDescent="0.3">
@@ -27686,7 +27686,7 @@
         <v>43516</v>
       </c>
       <c r="B3405" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3406" spans="1:2" x14ac:dyDescent="0.3">
@@ -27694,7 +27694,7 @@
         <v>43516.041666666657</v>
       </c>
       <c r="B3406" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3407" spans="1:2" x14ac:dyDescent="0.3">
@@ -27702,7 +27702,7 @@
         <v>43516.083333333343</v>
       </c>
       <c r="B3407" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3408" spans="1:2" x14ac:dyDescent="0.3">
@@ -27710,7 +27710,7 @@
         <v>43516.125</v>
       </c>
       <c r="B3408" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3409" spans="1:2" x14ac:dyDescent="0.3">
@@ -27718,7 +27718,7 @@
         <v>43516.166666666657</v>
       </c>
       <c r="B3409" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3410" spans="1:2" x14ac:dyDescent="0.3">
@@ -27726,7 +27726,7 @@
         <v>43516.208333333343</v>
       </c>
       <c r="B3410" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3411" spans="1:2" x14ac:dyDescent="0.3">
@@ -27734,7 +27734,7 @@
         <v>43516.25</v>
       </c>
       <c r="B3411" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3412" spans="1:2" x14ac:dyDescent="0.3">
@@ -27742,7 +27742,7 @@
         <v>43516.291666666657</v>
       </c>
       <c r="B3412" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3413" spans="1:2" x14ac:dyDescent="0.3">
@@ -27750,7 +27750,7 @@
         <v>43516.333333333343</v>
       </c>
       <c r="B3413" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3414" spans="1:2" x14ac:dyDescent="0.3">
@@ -27758,7 +27758,7 @@
         <v>43516.375</v>
       </c>
       <c r="B3414" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3415" spans="1:2" x14ac:dyDescent="0.3">
@@ -27766,7 +27766,7 @@
         <v>43516.416666666657</v>
       </c>
       <c r="B3415" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3416" spans="1:2" x14ac:dyDescent="0.3">
@@ -27774,7 +27774,7 @@
         <v>43516.458333333343</v>
       </c>
       <c r="B3416" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3417" spans="1:2" x14ac:dyDescent="0.3">
@@ -27782,7 +27782,7 @@
         <v>43516.5</v>
       </c>
       <c r="B3417" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3418" spans="1:2" x14ac:dyDescent="0.3">
@@ -27790,7 +27790,7 @@
         <v>43516.541666666657</v>
       </c>
       <c r="B3418" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3419" spans="1:2" x14ac:dyDescent="0.3">
@@ -27798,7 +27798,7 @@
         <v>43516.583333333343</v>
       </c>
       <c r="B3419" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3420" spans="1:2" x14ac:dyDescent="0.3">
@@ -27806,7 +27806,7 @@
         <v>43516.625</v>
       </c>
       <c r="B3420" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3421" spans="1:2" x14ac:dyDescent="0.3">
@@ -27814,7 +27814,7 @@
         <v>43516.666666666657</v>
       </c>
       <c r="B3421" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3422" spans="1:2" x14ac:dyDescent="0.3">
@@ -27822,7 +27822,7 @@
         <v>43516.708333333343</v>
       </c>
       <c r="B3422" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3423" spans="1:2" x14ac:dyDescent="0.3">
@@ -27830,7 +27830,7 @@
         <v>43516.75</v>
       </c>
       <c r="B3423" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3424" spans="1:2" x14ac:dyDescent="0.3">
@@ -27838,7 +27838,7 @@
         <v>43516.791666666657</v>
       </c>
       <c r="B3424" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3425" spans="1:2" x14ac:dyDescent="0.3">
@@ -27846,7 +27846,7 @@
         <v>43516.833333333343</v>
       </c>
       <c r="B3425" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3426" spans="1:2" x14ac:dyDescent="0.3">
@@ -27854,7 +27854,7 @@
         <v>43516.875</v>
       </c>
       <c r="B3426" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3427" spans="1:2" x14ac:dyDescent="0.3">
@@ -27862,7 +27862,7 @@
         <v>43516.916666666657</v>
       </c>
       <c r="B3427" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3428" spans="1:2" x14ac:dyDescent="0.3">
@@ -27870,7 +27870,7 @@
         <v>43516.958333333343</v>
       </c>
       <c r="B3428" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3429" spans="1:2" x14ac:dyDescent="0.3">
@@ -27878,7 +27878,7 @@
         <v>43517</v>
       </c>
       <c r="B3429" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3430" spans="1:2" x14ac:dyDescent="0.3">
@@ -27886,7 +27886,7 @@
         <v>43517.041666666657</v>
       </c>
       <c r="B3430" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3431" spans="1:2" x14ac:dyDescent="0.3">
@@ -27894,7 +27894,7 @@
         <v>43517.083333333343</v>
       </c>
       <c r="B3431" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3432" spans="1:2" x14ac:dyDescent="0.3">
@@ -27902,7 +27902,7 @@
         <v>43517.125</v>
       </c>
       <c r="B3432" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3433" spans="1:2" x14ac:dyDescent="0.3">
@@ -27910,7 +27910,7 @@
         <v>43517.166666666657</v>
       </c>
       <c r="B3433" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3434" spans="1:2" x14ac:dyDescent="0.3">
@@ -27918,7 +27918,7 @@
         <v>43517.208333333343</v>
       </c>
       <c r="B3434" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3435" spans="1:2" x14ac:dyDescent="0.3">
@@ -27926,7 +27926,7 @@
         <v>43517.25</v>
       </c>
       <c r="B3435" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3436" spans="1:2" x14ac:dyDescent="0.3">
@@ -27934,7 +27934,7 @@
         <v>43517.291666666657</v>
       </c>
       <c r="B3436" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3437" spans="1:2" x14ac:dyDescent="0.3">
@@ -27942,7 +27942,7 @@
         <v>43517.333333333343</v>
       </c>
       <c r="B3437" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3438" spans="1:2" x14ac:dyDescent="0.3">
@@ -27950,7 +27950,7 @@
         <v>43517.375</v>
       </c>
       <c r="B3438" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3439" spans="1:2" x14ac:dyDescent="0.3">
@@ -27958,7 +27958,7 @@
         <v>43517.416666666657</v>
       </c>
       <c r="B3439" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3440" spans="1:2" x14ac:dyDescent="0.3">
@@ -27966,7 +27966,7 @@
         <v>43517.458333333343</v>
       </c>
       <c r="B3440" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3441" spans="1:2" x14ac:dyDescent="0.3">
@@ -27974,7 +27974,7 @@
         <v>43517.5</v>
       </c>
       <c r="B3441" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3442" spans="1:2" x14ac:dyDescent="0.3">
@@ -27982,7 +27982,7 @@
         <v>43517.541666666657</v>
       </c>
       <c r="B3442" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3443" spans="1:2" x14ac:dyDescent="0.3">
@@ -27990,7 +27990,7 @@
         <v>43517.583333333343</v>
       </c>
       <c r="B3443" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3444" spans="1:2" x14ac:dyDescent="0.3">
@@ -27998,7 +27998,7 @@
         <v>43517.625</v>
       </c>
       <c r="B3444" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3445" spans="1:2" x14ac:dyDescent="0.3">
@@ -28006,7 +28006,7 @@
         <v>43517.666666666657</v>
       </c>
       <c r="B3445" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3446" spans="1:2" x14ac:dyDescent="0.3">
@@ -28014,7 +28014,7 @@
         <v>43517.708333333343</v>
       </c>
       <c r="B3446" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3447" spans="1:2" x14ac:dyDescent="0.3">
@@ -28022,7 +28022,7 @@
         <v>43517.75</v>
       </c>
       <c r="B3447" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3448" spans="1:2" x14ac:dyDescent="0.3">
@@ -28030,7 +28030,7 @@
         <v>43517.791666666657</v>
       </c>
       <c r="B3448" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3449" spans="1:2" x14ac:dyDescent="0.3">
@@ -28038,7 +28038,7 @@
         <v>43517.833333333343</v>
       </c>
       <c r="B3449" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3450" spans="1:2" x14ac:dyDescent="0.3">
@@ -28046,7 +28046,7 @@
         <v>43517.875</v>
       </c>
       <c r="B3450" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3451" spans="1:2" x14ac:dyDescent="0.3">
@@ -28054,7 +28054,7 @@
         <v>43517.916666666657</v>
       </c>
       <c r="B3451" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3452" spans="1:2" x14ac:dyDescent="0.3">
@@ -28062,7 +28062,7 @@
         <v>43517.958333333343</v>
       </c>
       <c r="B3452" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3453" spans="1:2" x14ac:dyDescent="0.3">
@@ -28070,7 +28070,7 @@
         <v>43518</v>
       </c>
       <c r="B3453" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3454" spans="1:2" x14ac:dyDescent="0.3">
@@ -28078,7 +28078,7 @@
         <v>43518.041666666657</v>
       </c>
       <c r="B3454" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3455" spans="1:2" x14ac:dyDescent="0.3">
@@ -28086,7 +28086,7 @@
         <v>43518.083333333343</v>
       </c>
       <c r="B3455" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3456" spans="1:2" x14ac:dyDescent="0.3">
@@ -28094,7 +28094,7 @@
         <v>43518.125</v>
       </c>
       <c r="B3456" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3457" spans="1:2" x14ac:dyDescent="0.3">
@@ -28102,7 +28102,7 @@
         <v>43518.166666666657</v>
       </c>
       <c r="B3457" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3458" spans="1:2" x14ac:dyDescent="0.3">
@@ -28110,7 +28110,7 @@
         <v>43518.208333333343</v>
       </c>
       <c r="B3458" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3459" spans="1:2" x14ac:dyDescent="0.3">
@@ -28118,7 +28118,7 @@
         <v>43518.25</v>
       </c>
       <c r="B3459" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3460" spans="1:2" x14ac:dyDescent="0.3">
@@ -28126,7 +28126,7 @@
         <v>43518.291666666657</v>
       </c>
       <c r="B3460" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3461" spans="1:2" x14ac:dyDescent="0.3">
@@ -28134,7 +28134,7 @@
         <v>43518.333333333343</v>
       </c>
       <c r="B3461" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3462" spans="1:2" x14ac:dyDescent="0.3">
@@ -28142,7 +28142,7 @@
         <v>43518.375</v>
       </c>
       <c r="B3462" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3463" spans="1:2" x14ac:dyDescent="0.3">
@@ -28150,7 +28150,7 @@
         <v>43518.416666666657</v>
       </c>
       <c r="B3463" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3464" spans="1:2" x14ac:dyDescent="0.3">
@@ -28158,7 +28158,7 @@
         <v>43518.458333333343</v>
       </c>
       <c r="B3464" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3465" spans="1:2" x14ac:dyDescent="0.3">
@@ -28166,7 +28166,7 @@
         <v>43518.5</v>
       </c>
       <c r="B3465" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3466" spans="1:2" x14ac:dyDescent="0.3">
@@ -28174,7 +28174,7 @@
         <v>43518.541666666657</v>
       </c>
       <c r="B3466" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3467" spans="1:2" x14ac:dyDescent="0.3">
@@ -28182,7 +28182,7 @@
         <v>43518.583333333343</v>
       </c>
       <c r="B3467" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3468" spans="1:2" x14ac:dyDescent="0.3">
@@ -28190,7 +28190,7 @@
         <v>43518.625</v>
       </c>
       <c r="B3468" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3469" spans="1:2" x14ac:dyDescent="0.3">
@@ -28198,7 +28198,7 @@
         <v>43518.666666666657</v>
       </c>
       <c r="B3469" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3470" spans="1:2" x14ac:dyDescent="0.3">
@@ -28206,7 +28206,7 @@
         <v>43518.708333333343</v>
       </c>
       <c r="B3470" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3471" spans="1:2" x14ac:dyDescent="0.3">
@@ -28214,7 +28214,7 @@
         <v>43518.75</v>
       </c>
       <c r="B3471" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3472" spans="1:2" x14ac:dyDescent="0.3">
@@ -28222,7 +28222,7 @@
         <v>43518.791666666657</v>
       </c>
       <c r="B3472" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3473" spans="1:2" x14ac:dyDescent="0.3">
@@ -28230,7 +28230,7 @@
         <v>43518.833333333343</v>
       </c>
       <c r="B3473" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3474" spans="1:2" x14ac:dyDescent="0.3">
@@ -28238,7 +28238,7 @@
         <v>43518.875</v>
       </c>
       <c r="B3474" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3475" spans="1:2" x14ac:dyDescent="0.3">
@@ -28246,7 +28246,7 @@
         <v>43518.916666666657</v>
       </c>
       <c r="B3475" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3476" spans="1:2" x14ac:dyDescent="0.3">
@@ -28254,7 +28254,7 @@
         <v>43518.958333333343</v>
       </c>
       <c r="B3476" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3477" spans="1:2" x14ac:dyDescent="0.3">
@@ -28262,7 +28262,7 @@
         <v>43519</v>
       </c>
       <c r="B3477" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3478" spans="1:2" x14ac:dyDescent="0.3">
@@ -28270,7 +28270,7 @@
         <v>43519.041666666657</v>
       </c>
       <c r="B3478" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3479" spans="1:2" x14ac:dyDescent="0.3">
@@ -28278,7 +28278,7 @@
         <v>43519.083333333343</v>
       </c>
       <c r="B3479" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3480" spans="1:2" x14ac:dyDescent="0.3">
@@ -28286,7 +28286,7 @@
         <v>43519.125</v>
       </c>
       <c r="B3480" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3481" spans="1:2" x14ac:dyDescent="0.3">
@@ -28294,7 +28294,7 @@
         <v>43519.166666666657</v>
       </c>
       <c r="B3481" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3482" spans="1:2" x14ac:dyDescent="0.3">
@@ -28302,7 +28302,7 @@
         <v>43519.208333333343</v>
       </c>
       <c r="B3482" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3483" spans="1:2" x14ac:dyDescent="0.3">
@@ -28310,7 +28310,7 @@
         <v>43519.25</v>
       </c>
       <c r="B3483" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3484" spans="1:2" x14ac:dyDescent="0.3">
@@ -28318,7 +28318,7 @@
         <v>43519.291666666657</v>
       </c>
       <c r="B3484" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3485" spans="1:2" x14ac:dyDescent="0.3">
@@ -28326,7 +28326,7 @@
         <v>43519.333333333343</v>
       </c>
       <c r="B3485" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3486" spans="1:2" x14ac:dyDescent="0.3">
@@ -28334,7 +28334,7 @@
         <v>43519.375</v>
       </c>
       <c r="B3486" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3487" spans="1:2" x14ac:dyDescent="0.3">
@@ -28342,7 +28342,7 @@
         <v>43519.416666666657</v>
       </c>
       <c r="B3487" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3488" spans="1:2" x14ac:dyDescent="0.3">
@@ -28350,7 +28350,7 @@
         <v>43519.458333333343</v>
       </c>
       <c r="B3488" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3489" spans="1:2" x14ac:dyDescent="0.3">
@@ -28358,7 +28358,7 @@
         <v>43519.5</v>
       </c>
       <c r="B3489" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3490" spans="1:2" x14ac:dyDescent="0.3">
@@ -28366,7 +28366,7 @@
         <v>43519.541666666657</v>
       </c>
       <c r="B3490" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3491" spans="1:2" x14ac:dyDescent="0.3">
@@ -28374,7 +28374,7 @@
         <v>43519.583333333343</v>
       </c>
       <c r="B3491" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3492" spans="1:2" x14ac:dyDescent="0.3">
@@ -28382,7 +28382,7 @@
         <v>43519.625</v>
       </c>
       <c r="B3492" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3493" spans="1:2" x14ac:dyDescent="0.3">
@@ -28390,7 +28390,7 @@
         <v>43519.666666666657</v>
       </c>
       <c r="B3493" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3494" spans="1:2" x14ac:dyDescent="0.3">
@@ -28398,7 +28398,7 @@
         <v>43519.708333333343</v>
       </c>
       <c r="B3494" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3495" spans="1:2" x14ac:dyDescent="0.3">
@@ -28406,7 +28406,7 @@
         <v>43519.75</v>
       </c>
       <c r="B3495" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3496" spans="1:2" x14ac:dyDescent="0.3">
@@ -28414,7 +28414,7 @@
         <v>43519.791666666657</v>
       </c>
       <c r="B3496" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3497" spans="1:2" x14ac:dyDescent="0.3">
@@ -28422,7 +28422,7 @@
         <v>43519.833333333343</v>
       </c>
       <c r="B3497" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3498" spans="1:2" x14ac:dyDescent="0.3">
@@ -28430,7 +28430,7 @@
         <v>43519.875</v>
       </c>
       <c r="B3498" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3499" spans="1:2" x14ac:dyDescent="0.3">
@@ -28438,7 +28438,7 @@
         <v>43519.916666666657</v>
       </c>
       <c r="B3499" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3500" spans="1:2" x14ac:dyDescent="0.3">
@@ -28446,7 +28446,7 @@
         <v>43519.958333333343</v>
       </c>
       <c r="B3500" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3501" spans="1:2" x14ac:dyDescent="0.3">
@@ -28454,7 +28454,7 @@
         <v>43520</v>
       </c>
       <c r="B3501" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3502" spans="1:2" x14ac:dyDescent="0.3">
@@ -28462,7 +28462,7 @@
         <v>43520.041666666657</v>
       </c>
       <c r="B3502" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3503" spans="1:2" x14ac:dyDescent="0.3">
@@ -28470,7 +28470,7 @@
         <v>43520.083333333343</v>
       </c>
       <c r="B3503" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3504" spans="1:2" x14ac:dyDescent="0.3">
@@ -28478,7 +28478,7 @@
         <v>43520.125</v>
       </c>
       <c r="B3504" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3505" spans="1:2" x14ac:dyDescent="0.3">
@@ -28486,7 +28486,7 @@
         <v>43520.166666666657</v>
       </c>
       <c r="B3505" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3506" spans="1:2" x14ac:dyDescent="0.3">
@@ -28494,7 +28494,7 @@
         <v>43520.208333333343</v>
       </c>
       <c r="B3506" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3507" spans="1:2" x14ac:dyDescent="0.3">
@@ -28502,7 +28502,7 @@
         <v>43520.25</v>
       </c>
       <c r="B3507" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3508" spans="1:2" x14ac:dyDescent="0.3">
@@ -28510,7 +28510,7 @@
         <v>43520.291666666657</v>
       </c>
       <c r="B3508" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3509" spans="1:2" x14ac:dyDescent="0.3">
@@ -28518,7 +28518,7 @@
         <v>43520.333333333343</v>
       </c>
       <c r="B3509" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3510" spans="1:2" x14ac:dyDescent="0.3">
@@ -28526,7 +28526,7 @@
         <v>43520.375</v>
       </c>
       <c r="B3510" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3511" spans="1:2" x14ac:dyDescent="0.3">
@@ -28534,7 +28534,7 @@
         <v>43520.416666666657</v>
       </c>
       <c r="B3511" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3512" spans="1:2" x14ac:dyDescent="0.3">
@@ -28542,7 +28542,7 @@
         <v>43520.458333333343</v>
       </c>
       <c r="B3512" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3513" spans="1:2" x14ac:dyDescent="0.3">
@@ -28550,7 +28550,7 @@
         <v>43520.5</v>
       </c>
       <c r="B3513" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3514" spans="1:2" x14ac:dyDescent="0.3">
@@ -28558,7 +28558,7 @@
         <v>43520.541666666657</v>
       </c>
       <c r="B3514" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3515" spans="1:2" x14ac:dyDescent="0.3">
@@ -28566,7 +28566,7 @@
         <v>43520.583333333343</v>
       </c>
       <c r="B3515" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3516" spans="1:2" x14ac:dyDescent="0.3">
@@ -28574,7 +28574,7 @@
         <v>43520.625</v>
       </c>
       <c r="B3516" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3517" spans="1:2" x14ac:dyDescent="0.3">
@@ -28582,7 +28582,7 @@
         <v>43520.666666666657</v>
       </c>
       <c r="B3517" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3518" spans="1:2" x14ac:dyDescent="0.3">
@@ -28590,7 +28590,7 @@
         <v>43520.708333333343</v>
       </c>
       <c r="B3518" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3519" spans="1:2" x14ac:dyDescent="0.3">
@@ -28598,7 +28598,7 @@
         <v>43520.75</v>
       </c>
       <c r="B3519" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3520" spans="1:2" x14ac:dyDescent="0.3">
@@ -28606,7 +28606,7 @@
         <v>43520.791666666657</v>
       </c>
       <c r="B3520" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3521" spans="1:2" x14ac:dyDescent="0.3">
@@ -28614,7 +28614,7 @@
         <v>43520.833333333343</v>
       </c>
       <c r="B3521" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3522" spans="1:2" x14ac:dyDescent="0.3">
@@ -28622,7 +28622,7 @@
         <v>43520.875</v>
       </c>
       <c r="B3522" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3523" spans="1:2" x14ac:dyDescent="0.3">
@@ -28630,7 +28630,7 @@
         <v>43520.916666666657</v>
       </c>
       <c r="B3523" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3524" spans="1:2" x14ac:dyDescent="0.3">
@@ -28638,7 +28638,7 @@
         <v>43520.958333333343</v>
       </c>
       <c r="B3524" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3525" spans="1:2" x14ac:dyDescent="0.3">
@@ -28646,7 +28646,7 @@
         <v>43521</v>
       </c>
       <c r="B3525" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3526" spans="1:2" x14ac:dyDescent="0.3">
@@ -28654,7 +28654,7 @@
         <v>43521.041666666657</v>
       </c>
       <c r="B3526" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3527" spans="1:2" x14ac:dyDescent="0.3">
@@ -28662,7 +28662,7 @@
         <v>43521.083333333343</v>
       </c>
       <c r="B3527" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3528" spans="1:2" x14ac:dyDescent="0.3">
@@ -28670,7 +28670,7 @@
         <v>43521.125</v>
       </c>
       <c r="B3528" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3529" spans="1:2" x14ac:dyDescent="0.3">
@@ -28678,7 +28678,7 @@
         <v>43521.166666666657</v>
       </c>
       <c r="B3529" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3530" spans="1:2" x14ac:dyDescent="0.3">
@@ -28686,7 +28686,7 @@
         <v>43521.208333333343</v>
       </c>
       <c r="B3530" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3531" spans="1:2" x14ac:dyDescent="0.3">
@@ -28694,7 +28694,7 @@
         <v>43521.25</v>
       </c>
       <c r="B3531" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3532" spans="1:2" x14ac:dyDescent="0.3">
@@ -28702,7 +28702,7 @@
         <v>43521.291666666657</v>
       </c>
       <c r="B3532" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3533" spans="1:2" x14ac:dyDescent="0.3">
@@ -28710,7 +28710,7 @@
         <v>43521.333333333343</v>
       </c>
       <c r="B3533" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3534" spans="1:2" x14ac:dyDescent="0.3">
@@ -28718,7 +28718,7 @@
         <v>43521.375</v>
       </c>
       <c r="B3534" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3535" spans="1:2" x14ac:dyDescent="0.3">
@@ -28726,7 +28726,7 @@
         <v>43521.416666666657</v>
       </c>
       <c r="B3535" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3536" spans="1:2" x14ac:dyDescent="0.3">
@@ -28734,7 +28734,7 @@
         <v>43521.458333333343</v>
       </c>
       <c r="B3536" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3537" spans="1:2" x14ac:dyDescent="0.3">
@@ -28742,7 +28742,7 @@
         <v>43521.5</v>
       </c>
       <c r="B3537" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3538" spans="1:2" x14ac:dyDescent="0.3">
@@ -28750,7 +28750,7 @@
         <v>43521.541666666657</v>
       </c>
       <c r="B3538" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3539" spans="1:2" x14ac:dyDescent="0.3">
@@ -28758,7 +28758,7 @@
         <v>43521.583333333343</v>
       </c>
       <c r="B3539" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3540" spans="1:2" x14ac:dyDescent="0.3">
@@ -28766,7 +28766,7 @@
         <v>43521.625</v>
       </c>
       <c r="B3540" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3541" spans="1:2" x14ac:dyDescent="0.3">
@@ -28774,7 +28774,7 @@
         <v>43521.666666666657</v>
       </c>
       <c r="B3541" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3542" spans="1:2" x14ac:dyDescent="0.3">
@@ -28782,7 +28782,7 @@
         <v>43521.708333333343</v>
       </c>
       <c r="B3542" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3543" spans="1:2" x14ac:dyDescent="0.3">
@@ -28790,7 +28790,7 @@
         <v>43521.75</v>
       </c>
       <c r="B3543" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3544" spans="1:2" x14ac:dyDescent="0.3">
@@ -28798,7 +28798,7 @@
         <v>43521.791666666657</v>
       </c>
       <c r="B3544" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3545" spans="1:2" x14ac:dyDescent="0.3">
@@ -28806,7 +28806,7 @@
         <v>43521.833333333343</v>
       </c>
       <c r="B3545" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3546" spans="1:2" x14ac:dyDescent="0.3">
@@ -28814,7 +28814,7 @@
         <v>43521.875</v>
       </c>
       <c r="B3546" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3547" spans="1:2" x14ac:dyDescent="0.3">
@@ -28822,7 +28822,7 @@
         <v>43521.916666666657</v>
       </c>
       <c r="B3547" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3548" spans="1:2" x14ac:dyDescent="0.3">
@@ -28830,7 +28830,7 @@
         <v>43521.958333333343</v>
       </c>
       <c r="B3548" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3549" spans="1:2" x14ac:dyDescent="0.3">
@@ -28838,7 +28838,7 @@
         <v>43522</v>
       </c>
       <c r="B3549" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3550" spans="1:2" x14ac:dyDescent="0.3">
@@ -28846,7 +28846,7 @@
         <v>43522.041666666657</v>
       </c>
       <c r="B3550" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3551" spans="1:2" x14ac:dyDescent="0.3">
@@ -28854,7 +28854,7 @@
         <v>43522.083333333343</v>
       </c>
       <c r="B3551" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3552" spans="1:2" x14ac:dyDescent="0.3">
@@ -28862,7 +28862,7 @@
         <v>43522.125</v>
       </c>
       <c r="B3552" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3553" spans="1:2" x14ac:dyDescent="0.3">
@@ -28870,7 +28870,7 @@
         <v>43522.166666666657</v>
       </c>
       <c r="B3553" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3554" spans="1:2" x14ac:dyDescent="0.3">
@@ -28878,7 +28878,7 @@
         <v>43522.208333333343</v>
       </c>
       <c r="B3554" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3555" spans="1:2" x14ac:dyDescent="0.3">
@@ -28886,7 +28886,7 @@
         <v>43522.25</v>
       </c>
       <c r="B3555" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3556" spans="1:2" x14ac:dyDescent="0.3">
@@ -28894,7 +28894,7 @@
         <v>43522.291666666657</v>
       </c>
       <c r="B3556" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3557" spans="1:2" x14ac:dyDescent="0.3">
@@ -28902,7 +28902,7 @@
         <v>43522.333333333343</v>
       </c>
       <c r="B3557" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3558" spans="1:2" x14ac:dyDescent="0.3">
@@ -28910,7 +28910,7 @@
         <v>43522.375</v>
       </c>
       <c r="B3558" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3559" spans="1:2" x14ac:dyDescent="0.3">
@@ -28918,7 +28918,7 @@
         <v>43522.416666666657</v>
       </c>
       <c r="B3559" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3560" spans="1:2" x14ac:dyDescent="0.3">
@@ -28926,7 +28926,7 @@
         <v>43522.458333333343</v>
       </c>
       <c r="B3560" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3561" spans="1:2" x14ac:dyDescent="0.3">
@@ -28934,7 +28934,7 @@
         <v>43522.5</v>
       </c>
       <c r="B3561" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3562" spans="1:2" x14ac:dyDescent="0.3">
@@ -28942,7 +28942,7 @@
         <v>43522.541666666657</v>
       </c>
       <c r="B3562" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3563" spans="1:2" x14ac:dyDescent="0.3">
@@ -28950,7 +28950,7 @@
         <v>43522.583333333343</v>
       </c>
       <c r="B3563" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3564" spans="1:2" x14ac:dyDescent="0.3">
@@ -28958,7 +28958,7 @@
         <v>43522.625</v>
       </c>
       <c r="B3564" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3565" spans="1:2" x14ac:dyDescent="0.3">
@@ -28966,7 +28966,7 @@
         <v>43522.666666666657</v>
       </c>
       <c r="B3565" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3566" spans="1:2" x14ac:dyDescent="0.3">
@@ -28974,7 +28974,7 @@
         <v>43522.708333333343</v>
       </c>
       <c r="B3566" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3567" spans="1:2" x14ac:dyDescent="0.3">
@@ -28982,7 +28982,7 @@
         <v>43522.75</v>
       </c>
       <c r="B3567" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3568" spans="1:2" x14ac:dyDescent="0.3">
@@ -28990,7 +28990,7 @@
         <v>43522.791666666657</v>
       </c>
       <c r="B3568" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3569" spans="1:2" x14ac:dyDescent="0.3">
@@ -28998,7 +28998,7 @@
         <v>43522.833333333343</v>
       </c>
       <c r="B3569" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3570" spans="1:2" x14ac:dyDescent="0.3">
@@ -29006,7 +29006,7 @@
         <v>43522.875</v>
       </c>
       <c r="B3570" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3571" spans="1:2" x14ac:dyDescent="0.3">
@@ -29014,7 +29014,7 @@
         <v>43522.916666666657</v>
       </c>
       <c r="B3571" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3572" spans="1:2" x14ac:dyDescent="0.3">
@@ -29022,7 +29022,7 @@
         <v>43522.958333333343</v>
       </c>
       <c r="B3572" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3573" spans="1:2" x14ac:dyDescent="0.3">
@@ -29030,7 +29030,7 @@
         <v>43523</v>
       </c>
       <c r="B3573" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3574" spans="1:2" x14ac:dyDescent="0.3">
@@ -29038,7 +29038,7 @@
         <v>43523.041666666657</v>
       </c>
       <c r="B3574" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3575" spans="1:2" x14ac:dyDescent="0.3">
@@ -29046,7 +29046,7 @@
         <v>43523.083333333343</v>
       </c>
       <c r="B3575" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3576" spans="1:2" x14ac:dyDescent="0.3">
@@ -29054,7 +29054,7 @@
         <v>43523.125</v>
       </c>
       <c r="B3576" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3577" spans="1:2" x14ac:dyDescent="0.3">
@@ -29062,7 +29062,7 @@
         <v>43523.166666666657</v>
       </c>
       <c r="B3577" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3578" spans="1:2" x14ac:dyDescent="0.3">
@@ -29070,7 +29070,7 @@
         <v>43523.208333333343</v>
       </c>
       <c r="B3578" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3579" spans="1:2" x14ac:dyDescent="0.3">
@@ -29078,7 +29078,7 @@
         <v>43523.25</v>
       </c>
       <c r="B3579" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3580" spans="1:2" x14ac:dyDescent="0.3">
@@ -29086,7 +29086,7 @@
         <v>43523.291666666657</v>
       </c>
       <c r="B3580" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3581" spans="1:2" x14ac:dyDescent="0.3">
@@ -29094,7 +29094,7 @@
         <v>43523.333333333343</v>
       </c>
       <c r="B3581" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3582" spans="1:2" x14ac:dyDescent="0.3">
@@ -29102,7 +29102,7 @@
         <v>43523.375</v>
       </c>
       <c r="B3582" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3583" spans="1:2" x14ac:dyDescent="0.3">
@@ -29110,7 +29110,7 @@
         <v>43523.416666666657</v>
       </c>
       <c r="B3583" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3584" spans="1:2" x14ac:dyDescent="0.3">
@@ -29118,7 +29118,7 @@
         <v>43523.458333333343</v>
       </c>
       <c r="B3584" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3585" spans="1:2" x14ac:dyDescent="0.3">
@@ -29126,7 +29126,7 @@
         <v>43523.5</v>
       </c>
       <c r="B3585" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3586" spans="1:2" x14ac:dyDescent="0.3">
@@ -29134,7 +29134,7 @@
         <v>43523.541666666657</v>
       </c>
       <c r="B3586" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3587" spans="1:2" x14ac:dyDescent="0.3">
@@ -29142,7 +29142,7 @@
         <v>43523.583333333343</v>
       </c>
       <c r="B3587" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3588" spans="1:2" x14ac:dyDescent="0.3">
@@ -29150,7 +29150,7 @@
         <v>43523.625</v>
       </c>
       <c r="B3588" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3589" spans="1:2" x14ac:dyDescent="0.3">
@@ -29158,7 +29158,7 @@
         <v>43523.666666666657</v>
       </c>
       <c r="B3589" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3590" spans="1:2" x14ac:dyDescent="0.3">
@@ -29166,7 +29166,7 @@
         <v>43523.708333333343</v>
       </c>
       <c r="B3590" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3591" spans="1:2" x14ac:dyDescent="0.3">
@@ -29174,7 +29174,7 @@
         <v>43523.75</v>
       </c>
       <c r="B3591" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3592" spans="1:2" x14ac:dyDescent="0.3">
@@ -29182,7 +29182,7 @@
         <v>43523.791666666657</v>
       </c>
       <c r="B3592" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3593" spans="1:2" x14ac:dyDescent="0.3">
@@ -29190,7 +29190,7 @@
         <v>43523.833333333343</v>
       </c>
       <c r="B3593" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3594" spans="1:2" x14ac:dyDescent="0.3">
@@ -29198,7 +29198,7 @@
         <v>43523.875</v>
       </c>
       <c r="B3594" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3595" spans="1:2" x14ac:dyDescent="0.3">
@@ -29206,7 +29206,7 @@
         <v>43523.916666666657</v>
       </c>
       <c r="B3595" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3596" spans="1:2" x14ac:dyDescent="0.3">
@@ -29214,7 +29214,7 @@
         <v>43523.958333333343</v>
       </c>
       <c r="B3596" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3597" spans="1:2" x14ac:dyDescent="0.3">
@@ -29222,7 +29222,7 @@
         <v>43524</v>
       </c>
       <c r="B3597" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3598" spans="1:2" x14ac:dyDescent="0.3">
@@ -29230,7 +29230,7 @@
         <v>43524.041666666657</v>
       </c>
       <c r="B3598" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3599" spans="1:2" x14ac:dyDescent="0.3">
@@ -29238,7 +29238,7 @@
         <v>43524.083333333343</v>
       </c>
       <c r="B3599" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3600" spans="1:2" x14ac:dyDescent="0.3">
@@ -29246,7 +29246,7 @@
         <v>43524.125</v>
       </c>
       <c r="B3600" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3601" spans="1:2" x14ac:dyDescent="0.3">
@@ -29254,7 +29254,7 @@
         <v>43524.166666666657</v>
       </c>
       <c r="B3601" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3602" spans="1:2" x14ac:dyDescent="0.3">
@@ -29262,7 +29262,7 @@
         <v>43524.208333333343</v>
       </c>
       <c r="B3602" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3603" spans="1:2" x14ac:dyDescent="0.3">
@@ -29270,7 +29270,7 @@
         <v>43524.25</v>
       </c>
       <c r="B3603" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3604" spans="1:2" x14ac:dyDescent="0.3">
@@ -29278,7 +29278,7 @@
         <v>43524.291666666657</v>
       </c>
       <c r="B3604" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3605" spans="1:2" x14ac:dyDescent="0.3">
@@ -29286,7 +29286,7 @@
         <v>43524.333333333343</v>
       </c>
       <c r="B3605" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3606" spans="1:2" x14ac:dyDescent="0.3">
@@ -29294,7 +29294,7 @@
         <v>43524.375</v>
       </c>
       <c r="B3606" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3607" spans="1:2" x14ac:dyDescent="0.3">
@@ -29302,7 +29302,7 @@
         <v>43524.416666666657</v>
       </c>
       <c r="B3607" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3608" spans="1:2" x14ac:dyDescent="0.3">
@@ -29310,7 +29310,7 @@
         <v>43524.458333333343</v>
       </c>
       <c r="B3608" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3609" spans="1:2" x14ac:dyDescent="0.3">
@@ -29318,7 +29318,7 @@
         <v>43524.5</v>
       </c>
       <c r="B3609" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3610" spans="1:2" x14ac:dyDescent="0.3">
@@ -29326,7 +29326,7 @@
         <v>43524.541666666657</v>
       </c>
       <c r="B3610" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3611" spans="1:2" x14ac:dyDescent="0.3">
@@ -29334,7 +29334,7 @@
         <v>43524.583333333343</v>
       </c>
       <c r="B3611" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3612" spans="1:2" x14ac:dyDescent="0.3">
@@ -29342,7 +29342,7 @@
         <v>43524.625</v>
       </c>
       <c r="B3612" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3613" spans="1:2" x14ac:dyDescent="0.3">
@@ -29350,7 +29350,7 @@
         <v>43524.666666666657</v>
       </c>
       <c r="B3613" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3614" spans="1:2" x14ac:dyDescent="0.3">
@@ -29358,7 +29358,7 @@
         <v>43524.708333333343</v>
       </c>
       <c r="B3614" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3615" spans="1:2" x14ac:dyDescent="0.3">
@@ -29366,7 +29366,7 @@
         <v>43524.75</v>
       </c>
       <c r="B3615" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3616" spans="1:2" x14ac:dyDescent="0.3">
@@ -29374,7 +29374,7 @@
         <v>43524.791666666657</v>
       </c>
       <c r="B3616" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3617" spans="1:2" x14ac:dyDescent="0.3">
@@ -29382,7 +29382,7 @@
         <v>43524.833333333343</v>
       </c>
       <c r="B3617" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3618" spans="1:2" x14ac:dyDescent="0.3">
@@ -29390,7 +29390,7 @@
         <v>43524.875</v>
       </c>
       <c r="B3618" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3619" spans="1:2" x14ac:dyDescent="0.3">
@@ -29398,7 +29398,7 @@
         <v>43524.916666666657</v>
       </c>
       <c r="B3619" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3620" spans="1:2" x14ac:dyDescent="0.3">
@@ -29406,7 +29406,7 @@
         <v>43524.958333333343</v>
       </c>
       <c r="B3620" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3621" spans="1:2" x14ac:dyDescent="0.3">
@@ -29414,7 +29414,7 @@
         <v>43525</v>
       </c>
       <c r="B3621" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3622" spans="1:2" x14ac:dyDescent="0.3">
@@ -29422,7 +29422,7 @@
         <v>43525.041666666657</v>
       </c>
       <c r="B3622" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3623" spans="1:2" x14ac:dyDescent="0.3">
@@ -29430,7 +29430,7 @@
         <v>43525.083333333343</v>
       </c>
       <c r="B3623" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3624" spans="1:2" x14ac:dyDescent="0.3">
@@ -29438,7 +29438,7 @@
         <v>43525.125</v>
       </c>
       <c r="B3624" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3625" spans="1:2" x14ac:dyDescent="0.3">
@@ -29446,7 +29446,7 @@
         <v>43525.166666666657</v>
       </c>
       <c r="B3625" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3626" spans="1:2" x14ac:dyDescent="0.3">
@@ -29454,7 +29454,7 @@
         <v>43525.208333333343</v>
       </c>
       <c r="B3626" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3627" spans="1:2" x14ac:dyDescent="0.3">
@@ -29462,7 +29462,7 @@
         <v>43525.25</v>
       </c>
       <c r="B3627" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3628" spans="1:2" x14ac:dyDescent="0.3">
@@ -29470,7 +29470,7 @@
         <v>43525.291666666657</v>
       </c>
       <c r="B3628" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3629" spans="1:2" x14ac:dyDescent="0.3">
@@ -29478,7 +29478,7 @@
         <v>43525.333333333343</v>
       </c>
       <c r="B3629" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3630" spans="1:2" x14ac:dyDescent="0.3">
@@ -29486,7 +29486,7 @@
         <v>43525.375</v>
       </c>
       <c r="B3630" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3631" spans="1:2" x14ac:dyDescent="0.3">
@@ -29494,7 +29494,7 @@
         <v>43525.416666666657</v>
       </c>
       <c r="B3631" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3632" spans="1:2" x14ac:dyDescent="0.3">
@@ -29502,7 +29502,7 @@
         <v>43525.458333333343</v>
       </c>
       <c r="B3632" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3633" spans="1:2" x14ac:dyDescent="0.3">
@@ -29510,7 +29510,7 @@
         <v>43525.5</v>
       </c>
       <c r="B3633" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3634" spans="1:2" x14ac:dyDescent="0.3">
@@ -29518,7 +29518,7 @@
         <v>43525.541666666657</v>
       </c>
       <c r="B3634" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3635" spans="1:2" x14ac:dyDescent="0.3">
@@ -29526,7 +29526,7 @@
         <v>43525.583333333343</v>
       </c>
       <c r="B3635" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3636" spans="1:2" x14ac:dyDescent="0.3">
@@ -29534,7 +29534,7 @@
         <v>43525.625</v>
       </c>
       <c r="B3636" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3637" spans="1:2" x14ac:dyDescent="0.3">
@@ -29542,7 +29542,7 @@
         <v>43525.666666666657</v>
       </c>
       <c r="B3637" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3638" spans="1:2" x14ac:dyDescent="0.3">
@@ -29550,7 +29550,7 @@
         <v>43525.708333333343</v>
       </c>
       <c r="B3638" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3639" spans="1:2" x14ac:dyDescent="0.3">
@@ -29558,7 +29558,7 @@
         <v>43525.75</v>
       </c>
       <c r="B3639" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3640" spans="1:2" x14ac:dyDescent="0.3">
@@ -29566,7 +29566,7 @@
         <v>43525.791666666657</v>
       </c>
       <c r="B3640" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3641" spans="1:2" x14ac:dyDescent="0.3">
@@ -29574,7 +29574,7 @@
         <v>43525.833333333343</v>
       </c>
       <c r="B3641" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3642" spans="1:2" x14ac:dyDescent="0.3">
@@ -29582,7 +29582,7 @@
         <v>43525.875</v>
       </c>
       <c r="B3642" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3643" spans="1:2" x14ac:dyDescent="0.3">
@@ -29590,7 +29590,7 @@
         <v>43525.916666666657</v>
       </c>
       <c r="B3643" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3644" spans="1:2" x14ac:dyDescent="0.3">
@@ -29598,7 +29598,7 @@
         <v>43525.958333333343</v>
       </c>
       <c r="B3644" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3645" spans="1:2" x14ac:dyDescent="0.3">
@@ -29606,7 +29606,7 @@
         <v>43526</v>
       </c>
       <c r="B3645" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3646" spans="1:2" x14ac:dyDescent="0.3">
@@ -29614,7 +29614,7 @@
         <v>43526.041666666657</v>
       </c>
       <c r="B3646" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3647" spans="1:2" x14ac:dyDescent="0.3">
@@ -29622,7 +29622,7 @@
         <v>43526.083333333343</v>
       </c>
       <c r="B3647" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3648" spans="1:2" x14ac:dyDescent="0.3">
@@ -29630,7 +29630,7 @@
         <v>43526.125</v>
       </c>
       <c r="B3648" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3649" spans="1:2" x14ac:dyDescent="0.3">
@@ -29638,7 +29638,7 @@
         <v>43526.166666666657</v>
       </c>
       <c r="B3649" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3650" spans="1:2" x14ac:dyDescent="0.3">
@@ -29646,7 +29646,7 @@
         <v>43526.208333333343</v>
       </c>
       <c r="B3650" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3651" spans="1:2" x14ac:dyDescent="0.3">
@@ -29654,7 +29654,7 @@
         <v>43526.25</v>
       </c>
       <c r="B3651" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3652" spans="1:2" x14ac:dyDescent="0.3">
@@ -29662,7 +29662,7 @@
         <v>43526.291666666657</v>
       </c>
       <c r="B3652" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3653" spans="1:2" x14ac:dyDescent="0.3">
@@ -29670,7 +29670,7 @@
         <v>43526.333333333343</v>
       </c>
       <c r="B3653" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3654" spans="1:2" x14ac:dyDescent="0.3">
@@ -29678,7 +29678,7 @@
         <v>43526.375</v>
       </c>
       <c r="B3654" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3655" spans="1:2" x14ac:dyDescent="0.3">
@@ -29686,7 +29686,7 @@
         <v>43526.416666666657</v>
       </c>
       <c r="B3655" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3656" spans="1:2" x14ac:dyDescent="0.3">
@@ -29694,7 +29694,7 @@
         <v>43526.458333333343</v>
       </c>
       <c r="B3656" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3657" spans="1:2" x14ac:dyDescent="0.3">
@@ -29702,7 +29702,7 @@
         <v>43526.5</v>
       </c>
       <c r="B3657" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3658" spans="1:2" x14ac:dyDescent="0.3">
@@ -29710,7 +29710,7 @@
         <v>43526.541666666657</v>
       </c>
       <c r="B3658" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3659" spans="1:2" x14ac:dyDescent="0.3">
@@ -29718,7 +29718,7 @@
         <v>43526.583333333343</v>
       </c>
       <c r="B3659" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3660" spans="1:2" x14ac:dyDescent="0.3">
@@ -29726,7 +29726,7 @@
         <v>43526.625</v>
       </c>
       <c r="B3660" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3661" spans="1:2" x14ac:dyDescent="0.3">
@@ -29734,7 +29734,7 @@
         <v>43526.666666666657</v>
       </c>
       <c r="B3661" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3662" spans="1:2" x14ac:dyDescent="0.3">
@@ -29742,7 +29742,7 @@
         <v>43526.708333333343</v>
       </c>
       <c r="B3662" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3663" spans="1:2" x14ac:dyDescent="0.3">
@@ -29750,7 +29750,7 @@
         <v>43526.75</v>
       </c>
       <c r="B3663" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3664" spans="1:2" x14ac:dyDescent="0.3">
@@ -29758,7 +29758,7 @@
         <v>43526.791666666657</v>
       </c>
       <c r="B3664" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3665" spans="1:2" x14ac:dyDescent="0.3">
@@ -29766,7 +29766,7 @@
         <v>43526.833333333343</v>
       </c>
       <c r="B3665" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3666" spans="1:2" x14ac:dyDescent="0.3">
@@ -29774,7 +29774,7 @@
         <v>43526.875</v>
       </c>
       <c r="B3666" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3667" spans="1:2" x14ac:dyDescent="0.3">
@@ -29782,7 +29782,7 @@
         <v>43526.916666666657</v>
       </c>
       <c r="B3667" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3668" spans="1:2" x14ac:dyDescent="0.3">
@@ -29790,7 +29790,7 @@
         <v>43526.958333333343</v>
       </c>
       <c r="B3668" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3669" spans="1:2" x14ac:dyDescent="0.3">
@@ -29798,7 +29798,7 @@
         <v>43527</v>
       </c>
       <c r="B3669" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3670" spans="1:2" x14ac:dyDescent="0.3">
@@ -29806,7 +29806,7 @@
         <v>43527.041666666657</v>
       </c>
       <c r="B3670" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3671" spans="1:2" x14ac:dyDescent="0.3">
@@ -29814,7 +29814,7 @@
         <v>43527.083333333343</v>
       </c>
       <c r="B3671" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3672" spans="1:2" x14ac:dyDescent="0.3">
@@ -29822,7 +29822,7 @@
         <v>43527.125</v>
       </c>
       <c r="B3672" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3673" spans="1:2" x14ac:dyDescent="0.3">
@@ -29830,7 +29830,7 @@
         <v>43527.166666666657</v>
       </c>
       <c r="B3673" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3674" spans="1:2" x14ac:dyDescent="0.3">
@@ -29838,7 +29838,7 @@
         <v>43527.208333333343</v>
       </c>
       <c r="B3674" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3675" spans="1:2" x14ac:dyDescent="0.3">
@@ -29846,7 +29846,7 @@
         <v>43527.25</v>
       </c>
       <c r="B3675" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3676" spans="1:2" x14ac:dyDescent="0.3">
@@ -29854,7 +29854,7 @@
         <v>43527.291666666657</v>
       </c>
       <c r="B3676" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3677" spans="1:2" x14ac:dyDescent="0.3">
@@ -29862,7 +29862,7 @@
         <v>43527.333333333343</v>
       </c>
       <c r="B3677" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3678" spans="1:2" x14ac:dyDescent="0.3">
@@ -29870,7 +29870,7 @@
         <v>43527.375</v>
       </c>
       <c r="B3678" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3679" spans="1:2" x14ac:dyDescent="0.3">
@@ -29878,7 +29878,7 @@
         <v>43527.416666666657</v>
       </c>
       <c r="B3679" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3680" spans="1:2" x14ac:dyDescent="0.3">
@@ -29886,7 +29886,7 @@
         <v>43527.458333333343</v>
       </c>
       <c r="B3680" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3681" spans="1:2" x14ac:dyDescent="0.3">
@@ -29894,7 +29894,7 @@
         <v>43527.5</v>
       </c>
       <c r="B3681" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3682" spans="1:2" x14ac:dyDescent="0.3">
@@ -29902,7 +29902,7 @@
         <v>43527.541666666657</v>
       </c>
       <c r="B3682" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3683" spans="1:2" x14ac:dyDescent="0.3">
@@ -29910,7 +29910,7 @@
         <v>43527.583333333343</v>
       </c>
       <c r="B3683" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3684" spans="1:2" x14ac:dyDescent="0.3">
@@ -29918,7 +29918,7 @@
         <v>43527.625</v>
       </c>
       <c r="B3684" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3685" spans="1:2" x14ac:dyDescent="0.3">
@@ -29926,7 +29926,7 @@
         <v>43527.666666666657</v>
       </c>
       <c r="B3685" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3686" spans="1:2" x14ac:dyDescent="0.3">
@@ -29934,7 +29934,7 @@
         <v>43527.708333333343</v>
       </c>
       <c r="B3686" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3687" spans="1:2" x14ac:dyDescent="0.3">
@@ -29942,7 +29942,7 @@
         <v>43527.75</v>
       </c>
       <c r="B3687" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3688" spans="1:2" x14ac:dyDescent="0.3">
@@ -29950,7 +29950,7 @@
         <v>43527.791666666657</v>
       </c>
       <c r="B3688" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3689" spans="1:2" x14ac:dyDescent="0.3">
@@ -29958,7 +29958,7 @@
         <v>43527.833333333343</v>
       </c>
       <c r="B3689" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3690" spans="1:2" x14ac:dyDescent="0.3">
@@ -29966,7 +29966,7 @@
         <v>43527.875</v>
       </c>
       <c r="B3690" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3691" spans="1:2" x14ac:dyDescent="0.3">
@@ -29974,7 +29974,7 @@
         <v>43527.916666666657</v>
       </c>
       <c r="B3691" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3692" spans="1:2" x14ac:dyDescent="0.3">
@@ -29982,7 +29982,7 @@
         <v>43527.958333333343</v>
       </c>
       <c r="B3692" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3693" spans="1:2" x14ac:dyDescent="0.3">
@@ -29990,7 +29990,7 @@
         <v>43528</v>
       </c>
       <c r="B3693" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3694" spans="1:2" x14ac:dyDescent="0.3">
@@ -29998,7 +29998,7 @@
         <v>43528.041666666657</v>
       </c>
       <c r="B3694" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3695" spans="1:2" x14ac:dyDescent="0.3">
@@ -30006,7 +30006,7 @@
         <v>43528.083333333343</v>
       </c>
       <c r="B3695" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3696" spans="1:2" x14ac:dyDescent="0.3">
@@ -30014,7 +30014,7 @@
         <v>43528.125</v>
       </c>
       <c r="B3696" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3697" spans="1:2" x14ac:dyDescent="0.3">
@@ -30022,7 +30022,7 @@
         <v>43528.166666666657</v>
       </c>
       <c r="B3697" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3698" spans="1:2" x14ac:dyDescent="0.3">
@@ -30030,7 +30030,7 @@
         <v>43528.208333333343</v>
       </c>
       <c r="B3698" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3699" spans="1:2" x14ac:dyDescent="0.3">
@@ -30038,7 +30038,7 @@
         <v>43528.25</v>
       </c>
       <c r="B3699" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3700" spans="1:2" x14ac:dyDescent="0.3">
@@ -30046,7 +30046,7 @@
         <v>43528.291666666657</v>
       </c>
       <c r="B3700" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3701" spans="1:2" x14ac:dyDescent="0.3">
@@ -30054,7 +30054,7 @@
         <v>43528.333333333343</v>
       </c>
       <c r="B3701" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3702" spans="1:2" x14ac:dyDescent="0.3">
@@ -30062,7 +30062,7 @@
         <v>43528.375</v>
       </c>
       <c r="B3702" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3703" spans="1:2" x14ac:dyDescent="0.3">
@@ -30070,7 +30070,7 @@
         <v>43528.416666666657</v>
       </c>
       <c r="B3703" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3704" spans="1:2" x14ac:dyDescent="0.3">
@@ -30078,7 +30078,7 @@
         <v>43528.458333333343</v>
       </c>
       <c r="B3704" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3705" spans="1:2" x14ac:dyDescent="0.3">
@@ -30086,7 +30086,7 @@
         <v>43528.5</v>
       </c>
       <c r="B3705" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3706" spans="1:2" x14ac:dyDescent="0.3">
@@ -30094,7 +30094,7 @@
         <v>43528.541666666657</v>
       </c>
       <c r="B3706" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3707" spans="1:2" x14ac:dyDescent="0.3">
@@ -30102,7 +30102,7 @@
         <v>43528.583333333343</v>
       </c>
       <c r="B3707" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3708" spans="1:2" x14ac:dyDescent="0.3">
@@ -30110,7 +30110,7 @@
         <v>43528.625</v>
       </c>
       <c r="B3708" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3709" spans="1:2" x14ac:dyDescent="0.3">
@@ -30118,7 +30118,7 @@
         <v>43528.666666666657</v>
       </c>
       <c r="B3709" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3710" spans="1:2" x14ac:dyDescent="0.3">
@@ -30126,7 +30126,7 @@
         <v>43528.708333333343</v>
       </c>
       <c r="B3710" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3711" spans="1:2" x14ac:dyDescent="0.3">
@@ -30134,7 +30134,7 @@
         <v>43528.75</v>
       </c>
       <c r="B3711" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3712" spans="1:2" x14ac:dyDescent="0.3">
@@ -30142,7 +30142,7 @@
         <v>43528.791666666657</v>
       </c>
       <c r="B3712" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3713" spans="1:2" x14ac:dyDescent="0.3">
@@ -30150,7 +30150,7 @@
         <v>43528.833333333343</v>
       </c>
       <c r="B3713" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3714" spans="1:2" x14ac:dyDescent="0.3">
@@ -30158,7 +30158,7 @@
         <v>43528.875</v>
       </c>
       <c r="B3714" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3715" spans="1:2" x14ac:dyDescent="0.3">
@@ -30166,7 +30166,7 @@
         <v>43528.916666666657</v>
       </c>
       <c r="B3715" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3716" spans="1:2" x14ac:dyDescent="0.3">
@@ -30174,7 +30174,7 @@
         <v>43528.958333333343</v>
       </c>
       <c r="B3716" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3717" spans="1:2" x14ac:dyDescent="0.3">
@@ -30182,7 +30182,7 @@
         <v>43529</v>
       </c>
       <c r="B3717" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3718" spans="1:2" x14ac:dyDescent="0.3">
@@ -30190,7 +30190,7 @@
         <v>43529.041666666657</v>
       </c>
       <c r="B3718" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3719" spans="1:2" x14ac:dyDescent="0.3">
@@ -30198,7 +30198,7 @@
         <v>43529.083333333343</v>
       </c>
       <c r="B3719" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3720" spans="1:2" x14ac:dyDescent="0.3">
@@ -30206,7 +30206,7 @@
         <v>43529.125</v>
       </c>
       <c r="B3720" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3721" spans="1:2" x14ac:dyDescent="0.3">
@@ -30214,7 +30214,7 @@
         <v>43529.166666666657</v>
       </c>
       <c r="B3721" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3722" spans="1:2" x14ac:dyDescent="0.3">
@@ -30222,7 +30222,7 @@
         <v>43529.208333333343</v>
       </c>
       <c r="B3722" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3723" spans="1:2" x14ac:dyDescent="0.3">
@@ -30230,7 +30230,7 @@
         <v>43529.25</v>
       </c>
       <c r="B3723" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3724" spans="1:2" x14ac:dyDescent="0.3">
@@ -30238,7 +30238,7 @@
         <v>43529.291666666657</v>
       </c>
       <c r="B3724" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3725" spans="1:2" x14ac:dyDescent="0.3">
@@ -30246,7 +30246,7 @@
         <v>43529.333333333343</v>
       </c>
       <c r="B3725" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3726" spans="1:2" x14ac:dyDescent="0.3">
@@ -30254,7 +30254,7 @@
         <v>43529.375</v>
       </c>
       <c r="B3726" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3727" spans="1:2" x14ac:dyDescent="0.3">
@@ -30262,7 +30262,7 @@
         <v>43529.416666666657</v>
       </c>
       <c r="B3727" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3728" spans="1:2" x14ac:dyDescent="0.3">
@@ -30270,7 +30270,7 @@
         <v>43529.458333333343</v>
       </c>
       <c r="B3728" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3729" spans="1:2" x14ac:dyDescent="0.3">
@@ -30278,7 +30278,7 @@
         <v>43529.5</v>
       </c>
       <c r="B3729" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3730" spans="1:2" x14ac:dyDescent="0.3">
@@ -30286,7 +30286,7 @@
         <v>43529.541666666657</v>
       </c>
       <c r="B3730" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3731" spans="1:2" x14ac:dyDescent="0.3">
@@ -30294,7 +30294,7 @@
         <v>43529.583333333343</v>
       </c>
       <c r="B3731" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3732" spans="1:2" x14ac:dyDescent="0.3">
@@ -30302,7 +30302,7 @@
         <v>43529.625</v>
       </c>
       <c r="B3732" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3733" spans="1:2" x14ac:dyDescent="0.3">
@@ -30310,7 +30310,7 @@
         <v>43529.666666666657</v>
       </c>
       <c r="B3733" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3734" spans="1:2" x14ac:dyDescent="0.3">
@@ -30318,7 +30318,7 @@
         <v>43529.708333333343</v>
       </c>
       <c r="B3734" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3735" spans="1:2" x14ac:dyDescent="0.3">
@@ -30326,7 +30326,7 @@
         <v>43529.75</v>
       </c>
       <c r="B3735" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3736" spans="1:2" x14ac:dyDescent="0.3">
@@ -30334,7 +30334,7 @@
         <v>43529.791666666657</v>
       </c>
       <c r="B3736" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3737" spans="1:2" x14ac:dyDescent="0.3">
@@ -30342,7 +30342,7 @@
         <v>43529.833333333343</v>
       </c>
       <c r="B3737" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3738" spans="1:2" x14ac:dyDescent="0.3">
@@ -30350,7 +30350,7 @@
         <v>43529.875</v>
       </c>
       <c r="B3738" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3739" spans="1:2" x14ac:dyDescent="0.3">
@@ -30358,7 +30358,7 @@
         <v>43529.916666666657</v>
       </c>
       <c r="B3739" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3740" spans="1:2" x14ac:dyDescent="0.3">
@@ -30366,7 +30366,7 @@
         <v>43529.958333333343</v>
       </c>
       <c r="B3740" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3741" spans="1:2" x14ac:dyDescent="0.3">
@@ -30374,7 +30374,7 @@
         <v>43530</v>
       </c>
       <c r="B3741" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3742" spans="1:2" x14ac:dyDescent="0.3">
@@ -30382,7 +30382,7 @@
         <v>43530.041666666657</v>
       </c>
       <c r="B3742" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3743" spans="1:2" x14ac:dyDescent="0.3">
@@ -30390,7 +30390,7 @@
         <v>43530.083333333343</v>
       </c>
       <c r="B3743" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3744" spans="1:2" x14ac:dyDescent="0.3">
@@ -30398,7 +30398,7 @@
         <v>43530.125</v>
       </c>
       <c r="B3744" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3745" spans="1:2" x14ac:dyDescent="0.3">
@@ -30406,7 +30406,7 @@
         <v>43530.166666666657</v>
       </c>
       <c r="B3745" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3746" spans="1:2" x14ac:dyDescent="0.3">
@@ -30414,7 +30414,7 @@
         <v>43530.208333333343</v>
       </c>
       <c r="B3746" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3747" spans="1:2" x14ac:dyDescent="0.3">
@@ -30422,7 +30422,7 @@
         <v>43530.25</v>
       </c>
       <c r="B3747" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3748" spans="1:2" x14ac:dyDescent="0.3">
@@ -30430,7 +30430,7 @@
         <v>43530.291666666657</v>
       </c>
       <c r="B3748" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3749" spans="1:2" x14ac:dyDescent="0.3">
@@ -30438,7 +30438,7 @@
         <v>43530.333333333343</v>
       </c>
       <c r="B3749" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3750" spans="1:2" x14ac:dyDescent="0.3">
@@ -30446,7 +30446,7 @@
         <v>43530.375</v>
       </c>
       <c r="B3750" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3751" spans="1:2" x14ac:dyDescent="0.3">
@@ -30454,7 +30454,7 @@
         <v>43530.416666666657</v>
       </c>
       <c r="B3751" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3752" spans="1:2" x14ac:dyDescent="0.3">
@@ -30462,7 +30462,7 @@
         <v>43530.458333333343</v>
       </c>
       <c r="B3752" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3753" spans="1:2" x14ac:dyDescent="0.3">
@@ -30470,7 +30470,7 @@
         <v>43530.5</v>
       </c>
       <c r="B3753" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3754" spans="1:2" x14ac:dyDescent="0.3">
@@ -30478,7 +30478,7 @@
         <v>43530.541666666657</v>
       </c>
       <c r="B3754" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3755" spans="1:2" x14ac:dyDescent="0.3">
@@ -30486,7 +30486,7 @@
         <v>43530.583333333343</v>
       </c>
       <c r="B3755" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3756" spans="1:2" x14ac:dyDescent="0.3">
@@ -30494,7 +30494,7 @@
         <v>43530.625</v>
       </c>
       <c r="B3756" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3757" spans="1:2" x14ac:dyDescent="0.3">
@@ -30502,7 +30502,7 @@
         <v>43530.666666666657</v>
       </c>
       <c r="B3757" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3758" spans="1:2" x14ac:dyDescent="0.3">
@@ -30510,7 +30510,7 @@
         <v>43530.708333333343</v>
       </c>
       <c r="B3758" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3759" spans="1:2" x14ac:dyDescent="0.3">
@@ -30518,7 +30518,7 @@
         <v>43530.75</v>
       </c>
       <c r="B3759" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3760" spans="1:2" x14ac:dyDescent="0.3">
@@ -30526,7 +30526,7 @@
         <v>43530.791666666657</v>
       </c>
       <c r="B3760" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3761" spans="1:2" x14ac:dyDescent="0.3">
@@ -30534,7 +30534,7 @@
         <v>43530.833333333343</v>
       </c>
       <c r="B3761" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3762" spans="1:2" x14ac:dyDescent="0.3">
@@ -30542,7 +30542,7 @@
         <v>43530.875</v>
       </c>
       <c r="B3762" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3763" spans="1:2" x14ac:dyDescent="0.3">
@@ -30550,7 +30550,7 @@
         <v>43530.916666666657</v>
       </c>
       <c r="B3763" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3764" spans="1:2" x14ac:dyDescent="0.3">
@@ -30558,7 +30558,7 @@
         <v>43530.958333333343</v>
       </c>
       <c r="B3764" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3765" spans="1:2" x14ac:dyDescent="0.3">
@@ -30566,7 +30566,7 @@
         <v>43531</v>
       </c>
       <c r="B3765" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3766" spans="1:2" x14ac:dyDescent="0.3">
@@ -30574,7 +30574,7 @@
         <v>43531.041666666657</v>
       </c>
       <c r="B3766" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3767" spans="1:2" x14ac:dyDescent="0.3">
@@ -30582,7 +30582,7 @@
         <v>43531.083333333343</v>
       </c>
       <c r="B3767" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3768" spans="1:2" x14ac:dyDescent="0.3">
@@ -30590,7 +30590,7 @@
         <v>43531.125</v>
       </c>
       <c r="B3768" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3769" spans="1:2" x14ac:dyDescent="0.3">
@@ -30598,7 +30598,7 @@
         <v>43531.166666666657</v>
       </c>
       <c r="B3769" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3770" spans="1:2" x14ac:dyDescent="0.3">
@@ -30606,7 +30606,7 @@
         <v>43531.208333333343</v>
       </c>
       <c r="B3770" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3771" spans="1:2" x14ac:dyDescent="0.3">
@@ -30614,7 +30614,7 @@
         <v>43531.25</v>
       </c>
       <c r="B3771" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3772" spans="1:2" x14ac:dyDescent="0.3">
@@ -30622,7 +30622,7 @@
         <v>43531.291666666657</v>
       </c>
       <c r="B3772" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3773" spans="1:2" x14ac:dyDescent="0.3">
@@ -30630,7 +30630,7 @@
         <v>43531.333333333343</v>
       </c>
       <c r="B3773" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3774" spans="1:2" x14ac:dyDescent="0.3">
@@ -30638,7 +30638,7 @@
         <v>43531.375</v>
       </c>
       <c r="B3774" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3775" spans="1:2" x14ac:dyDescent="0.3">
@@ -30646,7 +30646,7 @@
         <v>43531.416666666657</v>
       </c>
       <c r="B3775" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3776" spans="1:2" x14ac:dyDescent="0.3">
@@ -30654,7 +30654,7 @@
         <v>43531.458333333343</v>
       </c>
       <c r="B3776" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3777" spans="1:2" x14ac:dyDescent="0.3">
@@ -30662,7 +30662,7 @@
         <v>43531.5</v>
       </c>
       <c r="B3777" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3778" spans="1:2" x14ac:dyDescent="0.3">
@@ -30670,7 +30670,7 @@
         <v>43531.541666666657</v>
       </c>
       <c r="B3778" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3779" spans="1:2" x14ac:dyDescent="0.3">
@@ -30678,7 +30678,7 @@
         <v>43531.583333333343</v>
       </c>
       <c r="B3779" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3780" spans="1:2" x14ac:dyDescent="0.3">
@@ -30686,7 +30686,7 @@
         <v>43531.625</v>
       </c>
       <c r="B3780" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3781" spans="1:2" x14ac:dyDescent="0.3">
@@ -30694,7 +30694,7 @@
         <v>43531.666666666657</v>
       </c>
       <c r="B3781" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3782" spans="1:2" x14ac:dyDescent="0.3">
@@ -30702,7 +30702,7 @@
         <v>43531.708333333343</v>
       </c>
       <c r="B3782" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3783" spans="1:2" x14ac:dyDescent="0.3">
@@ -30710,7 +30710,7 @@
         <v>43531.75</v>
       </c>
       <c r="B3783" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3784" spans="1:2" x14ac:dyDescent="0.3">
@@ -30718,7 +30718,7 @@
         <v>43531.791666666657</v>
       </c>
       <c r="B3784" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3785" spans="1:2" x14ac:dyDescent="0.3">
@@ -30726,7 +30726,7 @@
         <v>43531.833333333343</v>
       </c>
       <c r="B3785" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3786" spans="1:2" x14ac:dyDescent="0.3">
@@ -30734,7 +30734,7 @@
         <v>43531.875</v>
       </c>
       <c r="B3786" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3787" spans="1:2" x14ac:dyDescent="0.3">
@@ -30742,7 +30742,7 @@
         <v>43531.916666666657</v>
       </c>
       <c r="B3787" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3788" spans="1:2" x14ac:dyDescent="0.3">
@@ -30750,7 +30750,7 @@
         <v>43531.958333333343</v>
       </c>
       <c r="B3788" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3789" spans="1:2" x14ac:dyDescent="0.3">
@@ -30758,7 +30758,7 @@
         <v>43532</v>
       </c>
       <c r="B3789" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3790" spans="1:2" x14ac:dyDescent="0.3">
@@ -30766,7 +30766,7 @@
         <v>43532.041666666657</v>
       </c>
       <c r="B3790" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3791" spans="1:2" x14ac:dyDescent="0.3">
@@ -30774,7 +30774,7 @@
         <v>43532.083333333343</v>
       </c>
       <c r="B3791" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3792" spans="1:2" x14ac:dyDescent="0.3">
@@ -30782,7 +30782,7 @@
         <v>43532.125</v>
       </c>
       <c r="B3792" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3793" spans="1:2" x14ac:dyDescent="0.3">
@@ -30790,7 +30790,7 @@
         <v>43532.166666666657</v>
       </c>
       <c r="B3793" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3794" spans="1:2" x14ac:dyDescent="0.3">
@@ -30798,7 +30798,7 @@
         <v>43532.208333333343</v>
       </c>
       <c r="B3794" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3795" spans="1:2" x14ac:dyDescent="0.3">
@@ -30806,7 +30806,7 @@
         <v>43532.25</v>
       </c>
       <c r="B3795" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3796" spans="1:2" x14ac:dyDescent="0.3">
@@ -30814,7 +30814,7 @@
         <v>43532.291666666657</v>
       </c>
       <c r="B3796" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3797" spans="1:2" x14ac:dyDescent="0.3">
@@ -30822,7 +30822,7 @@
         <v>43532.333333333343</v>
       </c>
       <c r="B3797" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3798" spans="1:2" x14ac:dyDescent="0.3">
@@ -30830,7 +30830,7 @@
         <v>43532.375</v>
       </c>
       <c r="B3798" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3799" spans="1:2" x14ac:dyDescent="0.3">
@@ -30838,7 +30838,7 @@
         <v>43532.416666666657</v>
       </c>
       <c r="B3799" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3800" spans="1:2" x14ac:dyDescent="0.3">
@@ -30846,7 +30846,7 @@
         <v>43532.458333333343</v>
       </c>
       <c r="B3800" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3801" spans="1:2" x14ac:dyDescent="0.3">
@@ -30854,7 +30854,7 @@
         <v>43532.5</v>
       </c>
       <c r="B3801" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3802" spans="1:2" x14ac:dyDescent="0.3">
@@ -30862,7 +30862,7 @@
         <v>43532.541666666657</v>
       </c>
       <c r="B3802" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3803" spans="1:2" x14ac:dyDescent="0.3">
@@ -30870,7 +30870,7 @@
         <v>43532.583333333343</v>
       </c>
       <c r="B3803" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3804" spans="1:2" x14ac:dyDescent="0.3">
@@ -30878,7 +30878,7 @@
         <v>43532.625</v>
       </c>
       <c r="B3804" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3805" spans="1:2" x14ac:dyDescent="0.3">
@@ -30886,7 +30886,7 @@
         <v>43532.666666666657</v>
       </c>
       <c r="B3805" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3806" spans="1:2" x14ac:dyDescent="0.3">
@@ -30894,7 +30894,7 @@
         <v>43532.708333333343</v>
       </c>
       <c r="B3806" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3807" spans="1:2" x14ac:dyDescent="0.3">
@@ -30902,7 +30902,7 @@
         <v>43532.75</v>
       </c>
       <c r="B3807" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3808" spans="1:2" x14ac:dyDescent="0.3">
@@ -30910,7 +30910,7 @@
         <v>43532.791666666657</v>
       </c>
       <c r="B3808" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3809" spans="1:2" x14ac:dyDescent="0.3">
@@ -30918,7 +30918,7 @@
         <v>43532.833333333343</v>
       </c>
       <c r="B3809" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3810" spans="1:2" x14ac:dyDescent="0.3">
@@ -30926,7 +30926,7 @@
         <v>43532.875</v>
       </c>
       <c r="B3810" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3811" spans="1:2" x14ac:dyDescent="0.3">
@@ -30934,7 +30934,7 @@
         <v>43532.916666666657</v>
       </c>
       <c r="B3811" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3812" spans="1:2" x14ac:dyDescent="0.3">
@@ -30942,7 +30942,7 @@
         <v>43532.958333333343</v>
       </c>
       <c r="B3812" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3813" spans="1:2" x14ac:dyDescent="0.3">
@@ -30950,7 +30950,7 @@
         <v>43533</v>
       </c>
       <c r="B3813" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3814" spans="1:2" x14ac:dyDescent="0.3">
@@ -30958,7 +30958,7 @@
         <v>43533.041666666657</v>
       </c>
       <c r="B3814" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3815" spans="1:2" x14ac:dyDescent="0.3">
@@ -30966,7 +30966,7 @@
         <v>43533.083333333343</v>
       </c>
       <c r="B3815" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3816" spans="1:2" x14ac:dyDescent="0.3">
@@ -30974,7 +30974,7 @@
         <v>43533.125</v>
       </c>
       <c r="B3816" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3817" spans="1:2" x14ac:dyDescent="0.3">
@@ -30982,7 +30982,7 @@
         <v>43533.166666666657</v>
       </c>
       <c r="B3817" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3818" spans="1:2" x14ac:dyDescent="0.3">
@@ -30990,7 +30990,7 @@
         <v>43533.208333333343</v>
       </c>
       <c r="B3818" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3819" spans="1:2" x14ac:dyDescent="0.3">
@@ -30998,7 +30998,7 @@
         <v>43533.25</v>
       </c>
       <c r="B3819" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3820" spans="1:2" x14ac:dyDescent="0.3">
@@ -31006,7 +31006,7 @@
         <v>43533.291666666657</v>
       </c>
       <c r="B3820" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3821" spans="1:2" x14ac:dyDescent="0.3">
@@ -31014,7 +31014,7 @@
         <v>43533.333333333343</v>
       </c>
       <c r="B3821" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3822" spans="1:2" x14ac:dyDescent="0.3">
@@ -31022,7 +31022,7 @@
         <v>43533.375</v>
       </c>
       <c r="B3822" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3823" spans="1:2" x14ac:dyDescent="0.3">
@@ -31030,7 +31030,7 @@
         <v>43533.416666666657</v>
       </c>
       <c r="B3823" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3824" spans="1:2" x14ac:dyDescent="0.3">
@@ -31038,7 +31038,7 @@
         <v>43533.458333333343</v>
       </c>
       <c r="B3824" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3825" spans="1:2" x14ac:dyDescent="0.3">
@@ -31046,7 +31046,7 @@
         <v>43533.5</v>
       </c>
       <c r="B3825" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3826" spans="1:2" x14ac:dyDescent="0.3">
@@ -31054,7 +31054,7 @@
         <v>43533.541666666657</v>
       </c>
       <c r="B3826" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3827" spans="1:2" x14ac:dyDescent="0.3">
@@ -31062,7 +31062,7 @@
         <v>43533.583333333343</v>
       </c>
       <c r="B3827" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3828" spans="1:2" x14ac:dyDescent="0.3">
@@ -31070,7 +31070,7 @@
         <v>43533.625</v>
       </c>
       <c r="B3828" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3829" spans="1:2" x14ac:dyDescent="0.3">
@@ -31078,7 +31078,7 @@
         <v>43533.666666666657</v>
       </c>
       <c r="B3829" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3830" spans="1:2" x14ac:dyDescent="0.3">
@@ -31086,7 +31086,7 @@
         <v>43533.708333333343</v>
       </c>
       <c r="B3830" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3831" spans="1:2" x14ac:dyDescent="0.3">
@@ -31094,7 +31094,7 @@
         <v>43533.75</v>
       </c>
       <c r="B3831" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3832" spans="1:2" x14ac:dyDescent="0.3">
@@ -31102,7 +31102,7 @@
         <v>43533.791666666657</v>
       </c>
       <c r="B3832" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3833" spans="1:2" x14ac:dyDescent="0.3">
@@ -31110,7 +31110,7 @@
         <v>43533.833333333343</v>
       </c>
       <c r="B3833" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3834" spans="1:2" x14ac:dyDescent="0.3">
@@ -31118,7 +31118,7 @@
         <v>43533.875</v>
       </c>
       <c r="B3834" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3835" spans="1:2" x14ac:dyDescent="0.3">
@@ -31126,7 +31126,7 @@
         <v>43533.916666666657</v>
       </c>
       <c r="B3835" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3836" spans="1:2" x14ac:dyDescent="0.3">
@@ -31134,7 +31134,7 @@
         <v>43533.958333333343</v>
       </c>
       <c r="B3836" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3837" spans="1:2" x14ac:dyDescent="0.3">
@@ -31142,7 +31142,7 @@
         <v>43534</v>
       </c>
       <c r="B3837" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3838" spans="1:2" x14ac:dyDescent="0.3">
@@ -31150,7 +31150,7 @@
         <v>43534.041666666657</v>
       </c>
       <c r="B3838" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3839" spans="1:2" x14ac:dyDescent="0.3">
@@ -31158,7 +31158,7 @@
         <v>43534.083333333343</v>
       </c>
       <c r="B3839" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3840" spans="1:2" x14ac:dyDescent="0.3">
@@ -31166,7 +31166,7 @@
         <v>43534.125</v>
       </c>
       <c r="B3840" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3841" spans="1:2" x14ac:dyDescent="0.3">
@@ -31174,7 +31174,7 @@
         <v>43534.166666666657</v>
       </c>
       <c r="B3841" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3842" spans="1:2" x14ac:dyDescent="0.3">
@@ -31182,7 +31182,7 @@
         <v>43534.208333333343</v>
       </c>
       <c r="B3842" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3843" spans="1:2" x14ac:dyDescent="0.3">
@@ -31190,7 +31190,7 @@
         <v>43534.25</v>
       </c>
       <c r="B3843" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3844" spans="1:2" x14ac:dyDescent="0.3">
@@ -31198,7 +31198,7 @@
         <v>43534.291666666657</v>
       </c>
       <c r="B3844" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3845" spans="1:2" x14ac:dyDescent="0.3">
@@ -31206,7 +31206,7 @@
         <v>43534.333333333343</v>
       </c>
       <c r="B3845" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3846" spans="1:2" x14ac:dyDescent="0.3">
@@ -31214,7 +31214,7 @@
         <v>43534.375</v>
       </c>
       <c r="B3846" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3847" spans="1:2" x14ac:dyDescent="0.3">
@@ -31222,7 +31222,7 @@
         <v>43534.416666666657</v>
       </c>
       <c r="B3847" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3848" spans="1:2" x14ac:dyDescent="0.3">
@@ -31230,7 +31230,7 @@
         <v>43534.458333333343</v>
       </c>
       <c r="B3848" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3849" spans="1:2" x14ac:dyDescent="0.3">
@@ -31238,7 +31238,7 @@
         <v>43534.5</v>
       </c>
       <c r="B3849" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3850" spans="1:2" x14ac:dyDescent="0.3">
@@ -31246,7 +31246,7 @@
         <v>43534.541666666657</v>
       </c>
       <c r="B3850" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3851" spans="1:2" x14ac:dyDescent="0.3">
@@ -31254,7 +31254,7 @@
         <v>43534.583333333343</v>
       </c>
       <c r="B3851" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3852" spans="1:2" x14ac:dyDescent="0.3">
@@ -31262,7 +31262,7 @@
         <v>43534.625</v>
       </c>
       <c r="B3852" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3853" spans="1:2" x14ac:dyDescent="0.3">
@@ -31270,7 +31270,7 @@
         <v>43534.666666666657</v>
       </c>
       <c r="B3853" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3854" spans="1:2" x14ac:dyDescent="0.3">
@@ -31278,7 +31278,7 @@
         <v>43534.708333333343</v>
       </c>
       <c r="B3854" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3855" spans="1:2" x14ac:dyDescent="0.3">
@@ -31286,7 +31286,7 @@
         <v>43534.75</v>
       </c>
       <c r="B3855" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3856" spans="1:2" x14ac:dyDescent="0.3">
@@ -31294,7 +31294,7 @@
         <v>43534.791666666657</v>
       </c>
       <c r="B3856" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3857" spans="1:2" x14ac:dyDescent="0.3">
@@ -31302,7 +31302,7 @@
         <v>43534.833333333343</v>
       </c>
       <c r="B3857" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3858" spans="1:2" x14ac:dyDescent="0.3">
@@ -31310,7 +31310,7 @@
         <v>43534.875</v>
       </c>
       <c r="B3858" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3859" spans="1:2" x14ac:dyDescent="0.3">
@@ -31318,7 +31318,7 @@
         <v>43534.916666666657</v>
       </c>
       <c r="B3859" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3860" spans="1:2" x14ac:dyDescent="0.3">
@@ -31326,7 +31326,7 @@
         <v>43534.958333333343</v>
       </c>
       <c r="B3860" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3861" spans="1:2" x14ac:dyDescent="0.3">
@@ -31334,7 +31334,7 @@
         <v>43535</v>
       </c>
       <c r="B3861" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3862" spans="1:2" x14ac:dyDescent="0.3">
@@ -31342,7 +31342,7 @@
         <v>43535.041666666657</v>
       </c>
       <c r="B3862" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3863" spans="1:2" x14ac:dyDescent="0.3">
@@ -31350,7 +31350,7 @@
         <v>43535.083333333343</v>
       </c>
       <c r="B3863" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3864" spans="1:2" x14ac:dyDescent="0.3">
@@ -31358,7 +31358,7 @@
         <v>43535.125</v>
       </c>
       <c r="B3864" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3865" spans="1:2" x14ac:dyDescent="0.3">
@@ -31366,7 +31366,7 @@
         <v>43535.166666666657</v>
       </c>
       <c r="B3865" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3866" spans="1:2" x14ac:dyDescent="0.3">
@@ -31374,7 +31374,7 @@
         <v>43535.208333333343</v>
       </c>
       <c r="B3866" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3867" spans="1:2" x14ac:dyDescent="0.3">
@@ -31382,7 +31382,7 @@
         <v>43535.25</v>
       </c>
       <c r="B3867" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3868" spans="1:2" x14ac:dyDescent="0.3">
@@ -31390,7 +31390,7 @@
         <v>43535.291666666657</v>
       </c>
       <c r="B3868" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3869" spans="1:2" x14ac:dyDescent="0.3">
@@ -31398,7 +31398,7 @@
         <v>43535.333333333343</v>
       </c>
       <c r="B3869" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3870" spans="1:2" x14ac:dyDescent="0.3">
@@ -31406,7 +31406,7 @@
         <v>43535.375</v>
       </c>
       <c r="B3870" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3871" spans="1:2" x14ac:dyDescent="0.3">
@@ -31414,7 +31414,7 @@
         <v>43535.416666666657</v>
       </c>
       <c r="B3871" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3872" spans="1:2" x14ac:dyDescent="0.3">
@@ -31422,7 +31422,7 @@
         <v>43535.458333333343</v>
       </c>
       <c r="B3872" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3873" spans="1:2" x14ac:dyDescent="0.3">
@@ -31430,7 +31430,7 @@
         <v>43535.5</v>
       </c>
       <c r="B3873" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3874" spans="1:2" x14ac:dyDescent="0.3">
@@ -31438,7 +31438,7 @@
         <v>43535.541666666657</v>
       </c>
       <c r="B3874" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3875" spans="1:2" x14ac:dyDescent="0.3">
@@ -31446,7 +31446,7 @@
         <v>43535.583333333343</v>
       </c>
       <c r="B3875" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3876" spans="1:2" x14ac:dyDescent="0.3">
@@ -31454,7 +31454,7 @@
         <v>43535.625</v>
       </c>
       <c r="B3876" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3877" spans="1:2" x14ac:dyDescent="0.3">
@@ -31462,7 +31462,7 @@
         <v>43535.666666666657</v>
       </c>
       <c r="B3877" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3878" spans="1:2" x14ac:dyDescent="0.3">
@@ -31470,7 +31470,7 @@
         <v>43535.708333333343</v>
       </c>
       <c r="B3878" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3879" spans="1:2" x14ac:dyDescent="0.3">
@@ -31478,7 +31478,7 @@
         <v>43535.75</v>
       </c>
       <c r="B3879" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3880" spans="1:2" x14ac:dyDescent="0.3">
@@ -31486,7 +31486,7 @@
         <v>43535.791666666657</v>
       </c>
       <c r="B3880" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3881" spans="1:2" x14ac:dyDescent="0.3">
@@ -31494,7 +31494,7 @@
         <v>43535.833333333343</v>
       </c>
       <c r="B3881" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3882" spans="1:2" x14ac:dyDescent="0.3">
@@ -31502,7 +31502,7 @@
         <v>43535.875</v>
       </c>
       <c r="B3882" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3883" spans="1:2" x14ac:dyDescent="0.3">
@@ -31510,7 +31510,7 @@
         <v>43535.916666666657</v>
       </c>
       <c r="B3883" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3884" spans="1:2" x14ac:dyDescent="0.3">
@@ -31518,7 +31518,7 @@
         <v>43535.958333333343</v>
       </c>
       <c r="B3884" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3885" spans="1:2" x14ac:dyDescent="0.3">
@@ -31526,7 +31526,7 @@
         <v>43536</v>
       </c>
       <c r="B3885" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3886" spans="1:2" x14ac:dyDescent="0.3">
@@ -31534,7 +31534,7 @@
         <v>43536.041666666657</v>
       </c>
       <c r="B3886" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3887" spans="1:2" x14ac:dyDescent="0.3">
@@ -31542,7 +31542,7 @@
         <v>43536.083333333343</v>
       </c>
       <c r="B3887" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3888" spans="1:2" x14ac:dyDescent="0.3">
@@ -31550,7 +31550,7 @@
         <v>43536.125</v>
       </c>
       <c r="B3888" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3889" spans="1:2" x14ac:dyDescent="0.3">
@@ -31558,7 +31558,7 @@
         <v>43536.166666666657</v>
       </c>
       <c r="B3889" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3890" spans="1:2" x14ac:dyDescent="0.3">
@@ -31566,7 +31566,7 @@
         <v>43536.208333333343</v>
       </c>
       <c r="B3890" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3891" spans="1:2" x14ac:dyDescent="0.3">
@@ -31574,7 +31574,7 @@
         <v>43536.25</v>
       </c>
       <c r="B3891" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3892" spans="1:2" x14ac:dyDescent="0.3">
@@ -31582,7 +31582,7 @@
         <v>43536.291666666657</v>
       </c>
       <c r="B3892" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3893" spans="1:2" x14ac:dyDescent="0.3">
@@ -31590,7 +31590,7 @@
         <v>43536.333333333343</v>
       </c>
       <c r="B3893" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3894" spans="1:2" x14ac:dyDescent="0.3">
@@ -31598,7 +31598,7 @@
         <v>43536.375</v>
       </c>
       <c r="B3894" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3895" spans="1:2" x14ac:dyDescent="0.3">
@@ -31606,7 +31606,7 @@
         <v>43536.416666666657</v>
       </c>
       <c r="B3895" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3896" spans="1:2" x14ac:dyDescent="0.3">
@@ -31614,7 +31614,7 @@
         <v>43536.458333333343</v>
       </c>
       <c r="B3896" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3897" spans="1:2" x14ac:dyDescent="0.3">
@@ -31622,7 +31622,7 @@
         <v>43536.5</v>
       </c>
       <c r="B3897" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3898" spans="1:2" x14ac:dyDescent="0.3">
@@ -31630,7 +31630,7 @@
         <v>43536.541666666657</v>
       </c>
       <c r="B3898" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3899" spans="1:2" x14ac:dyDescent="0.3">
@@ -31638,7 +31638,7 @@
         <v>43536.583333333343</v>
       </c>
       <c r="B3899" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3900" spans="1:2" x14ac:dyDescent="0.3">
@@ -31646,7 +31646,7 @@
         <v>43536.625</v>
       </c>
       <c r="B3900" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3901" spans="1:2" x14ac:dyDescent="0.3">
@@ -31654,7 +31654,7 @@
         <v>43536.666666666657</v>
       </c>
       <c r="B3901" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3902" spans="1:2" x14ac:dyDescent="0.3">
@@ -31662,7 +31662,7 @@
         <v>43536.708333333343</v>
       </c>
       <c r="B3902" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3903" spans="1:2" x14ac:dyDescent="0.3">
@@ -31670,7 +31670,7 @@
         <v>43536.75</v>
       </c>
       <c r="B3903" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3904" spans="1:2" x14ac:dyDescent="0.3">
@@ -31678,7 +31678,7 @@
         <v>43536.791666666657</v>
       </c>
       <c r="B3904" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3905" spans="1:2" x14ac:dyDescent="0.3">
@@ -31686,7 +31686,7 @@
         <v>43536.833333333343</v>
       </c>
       <c r="B3905" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3906" spans="1:2" x14ac:dyDescent="0.3">
@@ -31694,7 +31694,7 @@
         <v>43536.875</v>
       </c>
       <c r="B3906" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3907" spans="1:2" x14ac:dyDescent="0.3">
@@ -31702,7 +31702,7 @@
         <v>43536.916666666657</v>
       </c>
       <c r="B3907" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3908" spans="1:2" x14ac:dyDescent="0.3">
@@ -31710,7 +31710,7 @@
         <v>43536.958333333343</v>
       </c>
       <c r="B3908" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3909" spans="1:2" x14ac:dyDescent="0.3">
@@ -31718,7 +31718,7 @@
         <v>43537</v>
       </c>
       <c r="B3909" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3910" spans="1:2" x14ac:dyDescent="0.3">
@@ -31726,7 +31726,7 @@
         <v>43537.041666666657</v>
       </c>
       <c r="B3910" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3911" spans="1:2" x14ac:dyDescent="0.3">
@@ -31734,7 +31734,7 @@
         <v>43537.083333333343</v>
       </c>
       <c r="B3911" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3912" spans="1:2" x14ac:dyDescent="0.3">
@@ -31742,7 +31742,7 @@
         <v>43537.125</v>
       </c>
       <c r="B3912" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3913" spans="1:2" x14ac:dyDescent="0.3">
@@ -31750,7 +31750,7 @@
         <v>43537.166666666657</v>
       </c>
       <c r="B3913" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3914" spans="1:2" x14ac:dyDescent="0.3">
@@ -31758,7 +31758,7 @@
         <v>43537.208333333343</v>
       </c>
       <c r="B3914" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3915" spans="1:2" x14ac:dyDescent="0.3">
@@ -31766,7 +31766,7 @@
         <v>43537.25</v>
       </c>
       <c r="B3915" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3916" spans="1:2" x14ac:dyDescent="0.3">
@@ -31774,7 +31774,7 @@
         <v>43537.291666666657</v>
       </c>
       <c r="B3916" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3917" spans="1:2" x14ac:dyDescent="0.3">
@@ -31782,7 +31782,7 @@
         <v>43537.333333333343</v>
       </c>
       <c r="B3917" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3918" spans="1:2" x14ac:dyDescent="0.3">
@@ -31790,7 +31790,7 @@
         <v>43537.375</v>
       </c>
       <c r="B3918" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3919" spans="1:2" x14ac:dyDescent="0.3">
@@ -31798,7 +31798,7 @@
         <v>43537.416666666657</v>
       </c>
       <c r="B3919" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3920" spans="1:2" x14ac:dyDescent="0.3">
@@ -31806,7 +31806,7 @@
         <v>43537.458333333343</v>
       </c>
       <c r="B3920" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3921" spans="1:2" x14ac:dyDescent="0.3">
@@ -31814,7 +31814,7 @@
         <v>43537.5</v>
       </c>
       <c r="B3921" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3922" spans="1:2" x14ac:dyDescent="0.3">
@@ -31822,7 +31822,7 @@
         <v>43537.541666666657</v>
       </c>
       <c r="B3922" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3923" spans="1:2" x14ac:dyDescent="0.3">
@@ -31830,7 +31830,7 @@
         <v>43537.583333333343</v>
       </c>
       <c r="B3923" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3924" spans="1:2" x14ac:dyDescent="0.3">
@@ -31838,7 +31838,7 @@
         <v>43537.625</v>
       </c>
       <c r="B3924" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3925" spans="1:2" x14ac:dyDescent="0.3">
@@ -31846,7 +31846,7 @@
         <v>43537.666666666657</v>
       </c>
       <c r="B3925" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3926" spans="1:2" x14ac:dyDescent="0.3">
@@ -31854,7 +31854,7 @@
         <v>43537.708333333343</v>
       </c>
       <c r="B3926" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3927" spans="1:2" x14ac:dyDescent="0.3">
@@ -31862,7 +31862,7 @@
         <v>43537.75</v>
       </c>
       <c r="B3927" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3928" spans="1:2" x14ac:dyDescent="0.3">
@@ -31870,7 +31870,7 @@
         <v>43537.791666666657</v>
       </c>
       <c r="B3928" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3929" spans="1:2" x14ac:dyDescent="0.3">
@@ -31878,7 +31878,7 @@
         <v>43537.833333333343</v>
       </c>
       <c r="B3929" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3930" spans="1:2" x14ac:dyDescent="0.3">
@@ -31886,7 +31886,7 @@
         <v>43537.875</v>
       </c>
       <c r="B3930" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3931" spans="1:2" x14ac:dyDescent="0.3">
@@ -31894,7 +31894,7 @@
         <v>43537.916666666657</v>
       </c>
       <c r="B3931" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3932" spans="1:2" x14ac:dyDescent="0.3">
@@ -31902,7 +31902,7 @@
         <v>43537.958333333343</v>
       </c>
       <c r="B3932" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3933" spans="1:2" x14ac:dyDescent="0.3">
@@ -31910,7 +31910,7 @@
         <v>43538</v>
       </c>
       <c r="B3933" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3934" spans="1:2" x14ac:dyDescent="0.3">
@@ -31918,7 +31918,7 @@
         <v>43538.041666666657</v>
       </c>
       <c r="B3934" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3935" spans="1:2" x14ac:dyDescent="0.3">
@@ -31926,7 +31926,7 @@
         <v>43538.083333333343</v>
       </c>
       <c r="B3935" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3936" spans="1:2" x14ac:dyDescent="0.3">
@@ -31934,7 +31934,7 @@
         <v>43538.125</v>
       </c>
       <c r="B3936" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3937" spans="1:2" x14ac:dyDescent="0.3">
@@ -31942,7 +31942,7 @@
         <v>43538.166666666657</v>
       </c>
       <c r="B3937" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3938" spans="1:2" x14ac:dyDescent="0.3">
@@ -31950,7 +31950,7 @@
         <v>43538.208333333343</v>
       </c>
       <c r="B3938" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3939" spans="1:2" x14ac:dyDescent="0.3">
@@ -31958,7 +31958,7 @@
         <v>43538.25</v>
       </c>
       <c r="B3939" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3940" spans="1:2" x14ac:dyDescent="0.3">
@@ -31966,7 +31966,7 @@
         <v>43538.291666666657</v>
       </c>
       <c r="B3940" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3941" spans="1:2" x14ac:dyDescent="0.3">
@@ -31974,7 +31974,7 @@
         <v>43538.333333333343</v>
       </c>
       <c r="B3941" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3942" spans="1:2" x14ac:dyDescent="0.3">
@@ -31982,7 +31982,7 @@
         <v>43538.375</v>
       </c>
       <c r="B3942" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3943" spans="1:2" x14ac:dyDescent="0.3">
@@ -31990,7 +31990,7 @@
         <v>43538.416666666657</v>
       </c>
       <c r="B3943" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3944" spans="1:2" x14ac:dyDescent="0.3">
@@ -31998,7 +31998,7 @@
         <v>43538.458333333343</v>
       </c>
       <c r="B3944" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3945" spans="1:2" x14ac:dyDescent="0.3">
@@ -32006,7 +32006,7 @@
         <v>43538.5</v>
       </c>
       <c r="B3945" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3946" spans="1:2" x14ac:dyDescent="0.3">
@@ -32014,7 +32014,7 @@
         <v>43538.541666666657</v>
       </c>
       <c r="B3946" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3947" spans="1:2" x14ac:dyDescent="0.3">
@@ -32022,7 +32022,7 @@
         <v>43538.583333333343</v>
       </c>
       <c r="B3947" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3948" spans="1:2" x14ac:dyDescent="0.3">
@@ -32030,7 +32030,7 @@
         <v>43538.625</v>
       </c>
       <c r="B3948" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3949" spans="1:2" x14ac:dyDescent="0.3">
@@ -32038,7 +32038,7 @@
         <v>43538.666666666657</v>
       </c>
       <c r="B3949" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3950" spans="1:2" x14ac:dyDescent="0.3">
@@ -32046,7 +32046,7 @@
         <v>43538.708333333343</v>
       </c>
       <c r="B3950" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3951" spans="1:2" x14ac:dyDescent="0.3">
@@ -32054,7 +32054,7 @@
         <v>43538.75</v>
       </c>
       <c r="B3951" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3952" spans="1:2" x14ac:dyDescent="0.3">
@@ -32062,7 +32062,7 @@
         <v>43538.791666666657</v>
       </c>
       <c r="B3952" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3953" spans="1:2" x14ac:dyDescent="0.3">
@@ -32070,7 +32070,7 @@
         <v>43538.833333333343</v>
       </c>
       <c r="B3953" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3954" spans="1:2" x14ac:dyDescent="0.3">
@@ -32078,7 +32078,7 @@
         <v>43538.875</v>
       </c>
       <c r="B3954" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3955" spans="1:2" x14ac:dyDescent="0.3">
@@ -32086,7 +32086,7 @@
         <v>43538.916666666657</v>
       </c>
       <c r="B3955" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3956" spans="1:2" x14ac:dyDescent="0.3">
@@ -32094,7 +32094,7 @@
         <v>43538.958333333343</v>
       </c>
       <c r="B3956" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3957" spans="1:2" x14ac:dyDescent="0.3">
@@ -32102,7 +32102,7 @@
         <v>43539</v>
       </c>
       <c r="B3957" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3958" spans="1:2" x14ac:dyDescent="0.3">
@@ -32110,7 +32110,7 @@
         <v>43539.041666666657</v>
       </c>
       <c r="B3958" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3959" spans="1:2" x14ac:dyDescent="0.3">
@@ -32118,7 +32118,7 @@
         <v>43539.083333333343</v>
       </c>
       <c r="B3959" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3960" spans="1:2" x14ac:dyDescent="0.3">
@@ -32126,7 +32126,7 @@
         <v>43539.125</v>
       </c>
       <c r="B3960" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3961" spans="1:2" x14ac:dyDescent="0.3">
@@ -32134,7 +32134,7 @@
         <v>43539.166666666657</v>
       </c>
       <c r="B3961" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3962" spans="1:2" x14ac:dyDescent="0.3">
@@ -32142,7 +32142,7 @@
         <v>43539.208333333343</v>
       </c>
       <c r="B3962" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3963" spans="1:2" x14ac:dyDescent="0.3">
@@ -32150,7 +32150,7 @@
         <v>43539.25</v>
       </c>
       <c r="B3963" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3964" spans="1:2" x14ac:dyDescent="0.3">
@@ -32158,7 +32158,7 @@
         <v>43539.291666666657</v>
       </c>
       <c r="B3964" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3965" spans="1:2" x14ac:dyDescent="0.3">
@@ -32166,7 +32166,7 @@
         <v>43539.333333333343</v>
       </c>
       <c r="B3965" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3966" spans="1:2" x14ac:dyDescent="0.3">
@@ -32174,7 +32174,7 @@
         <v>43539.375</v>
       </c>
       <c r="B3966" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3967" spans="1:2" x14ac:dyDescent="0.3">
@@ -32182,7 +32182,7 @@
         <v>43539.416666666657</v>
       </c>
       <c r="B3967" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3968" spans="1:2" x14ac:dyDescent="0.3">
@@ -32190,7 +32190,7 @@
         <v>43539.458333333343</v>
       </c>
       <c r="B3968" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3969" spans="1:2" x14ac:dyDescent="0.3">
@@ -32198,7 +32198,7 @@
         <v>43539.5</v>
       </c>
       <c r="B3969" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3970" spans="1:2" x14ac:dyDescent="0.3">
@@ -32206,7 +32206,7 @@
         <v>43539.541666666657</v>
       </c>
       <c r="B3970" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3971" spans="1:2" x14ac:dyDescent="0.3">
@@ -32214,7 +32214,7 @@
         <v>43539.583333333343</v>
       </c>
       <c r="B3971" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3972" spans="1:2" x14ac:dyDescent="0.3">
@@ -32222,7 +32222,7 @@
         <v>43539.625</v>
       </c>
       <c r="B3972" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3973" spans="1:2" x14ac:dyDescent="0.3">
@@ -32230,7 +32230,7 @@
         <v>43539.666666666657</v>
       </c>
       <c r="B3973" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3974" spans="1:2" x14ac:dyDescent="0.3">
@@ -32238,7 +32238,7 @@
         <v>43539.708333333343</v>
       </c>
       <c r="B3974" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3975" spans="1:2" x14ac:dyDescent="0.3">
@@ -32246,7 +32246,7 @@
         <v>43539.75</v>
       </c>
       <c r="B3975" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3976" spans="1:2" x14ac:dyDescent="0.3">
@@ -32254,7 +32254,7 @@
         <v>43539.791666666657</v>
       </c>
       <c r="B3976" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3977" spans="1:2" x14ac:dyDescent="0.3">
@@ -32262,7 +32262,7 @@
         <v>43539.833333333343</v>
       </c>
       <c r="B3977" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3978" spans="1:2" x14ac:dyDescent="0.3">
@@ -32270,7 +32270,7 @@
         <v>43539.875</v>
       </c>
       <c r="B3978" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3979" spans="1:2" x14ac:dyDescent="0.3">
@@ -32278,7 +32278,7 @@
         <v>43539.916666666657</v>
       </c>
       <c r="B3979" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3980" spans="1:2" x14ac:dyDescent="0.3">
@@ -32286,7 +32286,7 @@
         <v>43539.958333333343</v>
       </c>
       <c r="B3980" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3981" spans="1:2" x14ac:dyDescent="0.3">
@@ -32294,7 +32294,7 @@
         <v>43540</v>
       </c>
       <c r="B3981" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3982" spans="1:2" x14ac:dyDescent="0.3">
@@ -32302,7 +32302,7 @@
         <v>43540.041666666657</v>
       </c>
       <c r="B3982" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3983" spans="1:2" x14ac:dyDescent="0.3">
@@ -32310,7 +32310,7 @@
         <v>43540.083333333343</v>
       </c>
       <c r="B3983" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3984" spans="1:2" x14ac:dyDescent="0.3">
@@ -32318,7 +32318,7 @@
         <v>43540.125</v>
       </c>
       <c r="B3984" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3985" spans="1:2" x14ac:dyDescent="0.3">
@@ -32326,7 +32326,7 @@
         <v>43540.166666666657</v>
       </c>
       <c r="B3985" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3986" spans="1:2" x14ac:dyDescent="0.3">
@@ -32334,7 +32334,7 @@
         <v>43540.208333333343</v>
       </c>
       <c r="B3986" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3987" spans="1:2" x14ac:dyDescent="0.3">
@@ -32342,7 +32342,7 @@
         <v>43540.25</v>
       </c>
       <c r="B3987" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3988" spans="1:2" x14ac:dyDescent="0.3">
@@ -32350,7 +32350,7 @@
         <v>43540.291666666657</v>
       </c>
       <c r="B3988" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3989" spans="1:2" x14ac:dyDescent="0.3">
@@ -32358,7 +32358,7 @@
         <v>43540.333333333343</v>
       </c>
       <c r="B3989" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3990" spans="1:2" x14ac:dyDescent="0.3">
@@ -32366,7 +32366,7 @@
         <v>43540.375</v>
       </c>
       <c r="B3990" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3991" spans="1:2" x14ac:dyDescent="0.3">
@@ -32374,7 +32374,7 @@
         <v>43540.416666666657</v>
       </c>
       <c r="B3991" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3992" spans="1:2" x14ac:dyDescent="0.3">
@@ -32382,7 +32382,7 @@
         <v>43540.458333333343</v>
       </c>
       <c r="B3992" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3993" spans="1:2" x14ac:dyDescent="0.3">
@@ -32390,7 +32390,7 @@
         <v>43540.5</v>
       </c>
       <c r="B3993" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3994" spans="1:2" x14ac:dyDescent="0.3">
@@ -32398,7 +32398,7 @@
         <v>43540.541666666657</v>
       </c>
       <c r="B3994" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3995" spans="1:2" x14ac:dyDescent="0.3">
@@ -32406,7 +32406,7 @@
         <v>43540.583333333343</v>
       </c>
       <c r="B3995" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3996" spans="1:2" x14ac:dyDescent="0.3">
@@ -32414,7 +32414,7 @@
         <v>43540.625</v>
       </c>
       <c r="B3996" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3997" spans="1:2" x14ac:dyDescent="0.3">
@@ -32422,7 +32422,7 @@
         <v>43540.666666666657</v>
       </c>
       <c r="B3997" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3998" spans="1:2" x14ac:dyDescent="0.3">
@@ -32430,7 +32430,7 @@
         <v>43540.708333333343</v>
       </c>
       <c r="B3998" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3999" spans="1:2" x14ac:dyDescent="0.3">
@@ -32438,7 +32438,7 @@
         <v>43540.75</v>
       </c>
       <c r="B3999" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4000" spans="1:2" x14ac:dyDescent="0.3">
@@ -32446,7 +32446,7 @@
         <v>43540.791666666657</v>
       </c>
       <c r="B4000" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4001" spans="1:2" x14ac:dyDescent="0.3">
@@ -32454,7 +32454,7 @@
         <v>43540.833333333343</v>
       </c>
       <c r="B4001" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4002" spans="1:2" x14ac:dyDescent="0.3">
@@ -32462,7 +32462,7 @@
         <v>43540.875</v>
       </c>
       <c r="B4002" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4003" spans="1:2" x14ac:dyDescent="0.3">
@@ -32470,7 +32470,7 @@
         <v>43540.916666666657</v>
       </c>
       <c r="B4003" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4004" spans="1:2" x14ac:dyDescent="0.3">
@@ -32478,7 +32478,7 @@
         <v>43540.958333333343</v>
       </c>
       <c r="B4004" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4005" spans="1:2" x14ac:dyDescent="0.3">
@@ -32486,7 +32486,7 @@
         <v>43541</v>
       </c>
       <c r="B4005" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4006" spans="1:2" x14ac:dyDescent="0.3">
@@ -32494,7 +32494,7 @@
         <v>43541.041666666657</v>
       </c>
       <c r="B4006" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4007" spans="1:2" x14ac:dyDescent="0.3">
@@ -32502,7 +32502,7 @@
         <v>43541.083333333343</v>
       </c>
       <c r="B4007" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4008" spans="1:2" x14ac:dyDescent="0.3">
@@ -32510,7 +32510,7 @@
         <v>43541.125</v>
       </c>
       <c r="B4008" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4009" spans="1:2" x14ac:dyDescent="0.3">
@@ -32518,7 +32518,7 @@
         <v>43541.166666666657</v>
       </c>
       <c r="B4009" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4010" spans="1:2" x14ac:dyDescent="0.3">
@@ -32526,7 +32526,7 @@
         <v>43541.208333333343</v>
       </c>
       <c r="B4010" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4011" spans="1:2" x14ac:dyDescent="0.3">
@@ -32534,7 +32534,7 @@
         <v>43541.25</v>
       </c>
       <c r="B4011" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4012" spans="1:2" x14ac:dyDescent="0.3">
@@ -32542,7 +32542,7 @@
         <v>43541.291666666657</v>
       </c>
       <c r="B4012" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4013" spans="1:2" x14ac:dyDescent="0.3">
@@ -32550,7 +32550,7 @@
         <v>43541.333333333343</v>
       </c>
       <c r="B4013" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4014" spans="1:2" x14ac:dyDescent="0.3">
@@ -32558,7 +32558,7 @@
         <v>43541.375</v>
       </c>
       <c r="B4014" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4015" spans="1:2" x14ac:dyDescent="0.3">
@@ -32566,7 +32566,7 @@
         <v>43541.416666666657</v>
       </c>
       <c r="B4015" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4016" spans="1:2" x14ac:dyDescent="0.3">
@@ -32574,7 +32574,7 @@
         <v>43541.458333333343</v>
       </c>
       <c r="B4016" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4017" spans="1:2" x14ac:dyDescent="0.3">
@@ -32582,7 +32582,7 @@
         <v>43541.5</v>
       </c>
       <c r="B4017" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4018" spans="1:2" x14ac:dyDescent="0.3">
@@ -32590,7 +32590,7 @@
         <v>43541.541666666657</v>
       </c>
       <c r="B4018" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4019" spans="1:2" x14ac:dyDescent="0.3">
@@ -32598,7 +32598,7 @@
         <v>43541.583333333343</v>
       </c>
       <c r="B4019" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4020" spans="1:2" x14ac:dyDescent="0.3">
@@ -32606,7 +32606,7 @@
         <v>43541.625</v>
       </c>
       <c r="B4020" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4021" spans="1:2" x14ac:dyDescent="0.3">
@@ -32614,7 +32614,7 @@
         <v>43541.666666666657</v>
       </c>
       <c r="B4021" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4022" spans="1:2" x14ac:dyDescent="0.3">
@@ -32622,7 +32622,7 @@
         <v>43541.708333333343</v>
       </c>
       <c r="B4022" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4023" spans="1:2" x14ac:dyDescent="0.3">
@@ -32630,7 +32630,7 @@
         <v>43541.75</v>
       </c>
       <c r="B4023" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4024" spans="1:2" x14ac:dyDescent="0.3">
@@ -32638,7 +32638,7 @@
         <v>43541.791666666657</v>
       </c>
       <c r="B4024" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4025" spans="1:2" x14ac:dyDescent="0.3">
@@ -32646,7 +32646,7 @@
         <v>43541.833333333343</v>
       </c>
       <c r="B4025" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4026" spans="1:2" x14ac:dyDescent="0.3">
@@ -32654,7 +32654,7 @@
         <v>43541.875</v>
       </c>
       <c r="B4026" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4027" spans="1:2" x14ac:dyDescent="0.3">
@@ -32662,7 +32662,7 @@
         <v>43541.916666666657</v>
       </c>
       <c r="B4027" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4028" spans="1:2" x14ac:dyDescent="0.3">
@@ -32670,7 +32670,7 @@
         <v>43541.958333333343</v>
       </c>
       <c r="B4028" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4029" spans="1:2" x14ac:dyDescent="0.3">
@@ -32678,7 +32678,7 @@
         <v>43542</v>
       </c>
       <c r="B4029" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4030" spans="1:2" x14ac:dyDescent="0.3">
@@ -32686,7 +32686,7 @@
         <v>43542.041666666657</v>
       </c>
       <c r="B4030" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4031" spans="1:2" x14ac:dyDescent="0.3">
@@ -32694,7 +32694,7 @@
         <v>43542.083333333343</v>
       </c>
       <c r="B4031" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4032" spans="1:2" x14ac:dyDescent="0.3">
@@ -32702,7 +32702,7 @@
         <v>43542.125</v>
       </c>
       <c r="B4032" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4033" spans="1:2" x14ac:dyDescent="0.3">
@@ -32710,7 +32710,7 @@
         <v>43542.166666666657</v>
       </c>
       <c r="B4033" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4034" spans="1:2" x14ac:dyDescent="0.3">
@@ -32718,7 +32718,7 @@
         <v>43542.208333333343</v>
       </c>
       <c r="B4034" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4035" spans="1:2" x14ac:dyDescent="0.3">
@@ -32726,7 +32726,7 @@
         <v>43542.25</v>
       </c>
       <c r="B4035" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4036" spans="1:2" x14ac:dyDescent="0.3">
@@ -32734,7 +32734,7 @@
         <v>43542.291666666657</v>
       </c>
       <c r="B4036" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4037" spans="1:2" x14ac:dyDescent="0.3">
@@ -32742,7 +32742,7 @@
         <v>43542.333333333343</v>
       </c>
       <c r="B4037" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4038" spans="1:2" x14ac:dyDescent="0.3">
@@ -32750,7 +32750,7 @@
         <v>43542.375</v>
       </c>
       <c r="B4038" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4039" spans="1:2" x14ac:dyDescent="0.3">
@@ -32758,7 +32758,7 @@
         <v>43542.416666666657</v>
       </c>
       <c r="B4039" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4040" spans="1:2" x14ac:dyDescent="0.3">
@@ -32766,7 +32766,7 @@
         <v>43542.458333333343</v>
       </c>
       <c r="B4040" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4041" spans="1:2" x14ac:dyDescent="0.3">
@@ -32774,7 +32774,7 @@
         <v>43542.5</v>
       </c>
       <c r="B4041" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4042" spans="1:2" x14ac:dyDescent="0.3">
@@ -32782,7 +32782,7 @@
         <v>43542.541666666657</v>
       </c>
       <c r="B4042" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4043" spans="1:2" x14ac:dyDescent="0.3">
@@ -32790,7 +32790,7 @@
         <v>43542.583333333343</v>
       </c>
       <c r="B4043" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4044" spans="1:2" x14ac:dyDescent="0.3">
@@ -32798,7 +32798,7 @@
         <v>43542.625</v>
       </c>
       <c r="B4044" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4045" spans="1:2" x14ac:dyDescent="0.3">
@@ -32806,7 +32806,7 @@
         <v>43542.666666666657</v>
       </c>
       <c r="B4045" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4046" spans="1:2" x14ac:dyDescent="0.3">
@@ -32814,7 +32814,7 @@
         <v>43542.708333333343</v>
       </c>
       <c r="B4046" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4047" spans="1:2" x14ac:dyDescent="0.3">
@@ -32822,7 +32822,7 @@
         <v>43542.75</v>
       </c>
       <c r="B4047" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4048" spans="1:2" x14ac:dyDescent="0.3">
@@ -32830,7 +32830,7 @@
         <v>43542.791666666657</v>
       </c>
       <c r="B4048" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4049" spans="1:2" x14ac:dyDescent="0.3">
@@ -32838,7 +32838,7 @@
         <v>43542.833333333343</v>
       </c>
       <c r="B4049" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4050" spans="1:2" x14ac:dyDescent="0.3">
@@ -32846,7 +32846,7 @@
         <v>43542.875</v>
       </c>
       <c r="B4050" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4051" spans="1:2" x14ac:dyDescent="0.3">
@@ -32854,7 +32854,7 @@
         <v>43542.916666666657</v>
       </c>
       <c r="B4051" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4052" spans="1:2" x14ac:dyDescent="0.3">
@@ -32862,7 +32862,7 @@
         <v>43542.958333333343</v>
       </c>
       <c r="B4052" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4053" spans="1:2" x14ac:dyDescent="0.3">
@@ -32870,7 +32870,7 @@
         <v>43543</v>
       </c>
       <c r="B4053" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4054" spans="1:2" x14ac:dyDescent="0.3">
@@ -32878,7 +32878,7 @@
         <v>43543.041666666657</v>
       </c>
       <c r="B4054" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4055" spans="1:2" x14ac:dyDescent="0.3">
@@ -32886,7 +32886,7 @@
         <v>43543.083333333343</v>
       </c>
       <c r="B4055" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4056" spans="1:2" x14ac:dyDescent="0.3">
@@ -32894,7 +32894,7 @@
         <v>43543.125</v>
       </c>
       <c r="B4056" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4057" spans="1:2" x14ac:dyDescent="0.3">
@@ -32902,7 +32902,7 @@
         <v>43543.166666666657</v>
       </c>
       <c r="B4057" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4058" spans="1:2" x14ac:dyDescent="0.3">
@@ -32910,7 +32910,7 @@
         <v>43543.208333333343</v>
       </c>
       <c r="B4058" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4059" spans="1:2" x14ac:dyDescent="0.3">
@@ -32918,7 +32918,7 @@
         <v>43543.25</v>
       </c>
       <c r="B4059" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4060" spans="1:2" x14ac:dyDescent="0.3">
@@ -32926,7 +32926,7 @@
         <v>43543.291666666657</v>
       </c>
       <c r="B4060" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4061" spans="1:2" x14ac:dyDescent="0.3">
@@ -32934,7 +32934,7 @@
         <v>43543.333333333343</v>
       </c>
       <c r="B4061" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4062" spans="1:2" x14ac:dyDescent="0.3">
@@ -32942,7 +32942,7 @@
         <v>43543.375</v>
       </c>
       <c r="B4062" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4063" spans="1:2" x14ac:dyDescent="0.3">
@@ -32950,7 +32950,7 @@
         <v>43543.416666666657</v>
       </c>
       <c r="B4063" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4064" spans="1:2" x14ac:dyDescent="0.3">
@@ -32958,7 +32958,7 @@
         <v>43543.458333333343</v>
       </c>
       <c r="B4064" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4065" spans="1:2" x14ac:dyDescent="0.3">
@@ -32966,7 +32966,7 @@
         <v>43543.5</v>
       </c>
       <c r="B4065" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4066" spans="1:2" x14ac:dyDescent="0.3">
@@ -32974,7 +32974,7 @@
         <v>43543.541666666657</v>
       </c>
       <c r="B4066" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4067" spans="1:2" x14ac:dyDescent="0.3">
@@ -32982,7 +32982,7 @@
         <v>43543.583333333343</v>
       </c>
       <c r="B4067" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4068" spans="1:2" x14ac:dyDescent="0.3">
@@ -32990,7 +32990,7 @@
         <v>43543.625</v>
       </c>
       <c r="B4068" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4069" spans="1:2" x14ac:dyDescent="0.3">
@@ -32998,7 +32998,7 @@
         <v>43543.666666666657</v>
       </c>
       <c r="B4069" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4070" spans="1:2" x14ac:dyDescent="0.3">
@@ -33006,7 +33006,7 @@
         <v>43543.708333333343</v>
       </c>
       <c r="B4070" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4071" spans="1:2" x14ac:dyDescent="0.3">
@@ -33014,7 +33014,7 @@
         <v>43543.75</v>
       </c>
       <c r="B4071" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4072" spans="1:2" x14ac:dyDescent="0.3">
@@ -33022,7 +33022,7 @@
         <v>43543.791666666657</v>
       </c>
       <c r="B4072" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4073" spans="1:2" x14ac:dyDescent="0.3">
@@ -33030,7 +33030,7 @@
         <v>43543.833333333343</v>
       </c>
       <c r="B4073" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4074" spans="1:2" x14ac:dyDescent="0.3">
@@ -33038,7 +33038,7 @@
         <v>43543.875</v>
       </c>
       <c r="B4074" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4075" spans="1:2" x14ac:dyDescent="0.3">
@@ -33046,7 +33046,7 @@
         <v>43543.916666666657</v>
       </c>
       <c r="B4075" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4076" spans="1:2" x14ac:dyDescent="0.3">
@@ -33054,7 +33054,7 @@
         <v>43543.958333333343</v>
       </c>
       <c r="B4076" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4077" spans="1:2" x14ac:dyDescent="0.3">
@@ -33062,7 +33062,7 @@
         <v>43544</v>
       </c>
       <c r="B4077" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4078" spans="1:2" x14ac:dyDescent="0.3">
@@ -33070,7 +33070,7 @@
         <v>43544.041666666657</v>
       </c>
       <c r="B4078" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4079" spans="1:2" x14ac:dyDescent="0.3">
@@ -33078,7 +33078,7 @@
         <v>43544.083333333343</v>
       </c>
       <c r="B4079" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4080" spans="1:2" x14ac:dyDescent="0.3">
@@ -33086,7 +33086,7 @@
         <v>43544.125</v>
       </c>
       <c r="B4080" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4081" spans="1:2" x14ac:dyDescent="0.3">
@@ -33094,7 +33094,7 @@
         <v>43544.166666666657</v>
       </c>
       <c r="B4081" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4082" spans="1:2" x14ac:dyDescent="0.3">
@@ -33102,7 +33102,7 @@
         <v>43544.208333333343</v>
       </c>
       <c r="B4082" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4083" spans="1:2" x14ac:dyDescent="0.3">
@@ -33110,7 +33110,7 @@
         <v>43544.25</v>
       </c>
       <c r="B4083" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4084" spans="1:2" x14ac:dyDescent="0.3">
@@ -33118,7 +33118,7 @@
         <v>43544.291666666657</v>
       </c>
       <c r="B4084" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4085" spans="1:2" x14ac:dyDescent="0.3">
@@ -33126,7 +33126,7 @@
         <v>43544.333333333343</v>
       </c>
       <c r="B4085" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4086" spans="1:2" x14ac:dyDescent="0.3">
@@ -33134,7 +33134,7 @@
         <v>43544.375</v>
       </c>
       <c r="B4086" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4087" spans="1:2" x14ac:dyDescent="0.3">
@@ -33142,7 +33142,7 @@
         <v>43544.416666666657</v>
       </c>
       <c r="B4087" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4088" spans="1:2" x14ac:dyDescent="0.3">
@@ -33150,7 +33150,7 @@
         <v>43544.458333333343</v>
       </c>
       <c r="B4088" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4089" spans="1:2" x14ac:dyDescent="0.3">
@@ -33158,7 +33158,7 @@
         <v>43544.5</v>
       </c>
       <c r="B4089" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4090" spans="1:2" x14ac:dyDescent="0.3">
@@ -33166,7 +33166,7 @@
         <v>43544.541666666657</v>
       </c>
       <c r="B4090" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4091" spans="1:2" x14ac:dyDescent="0.3">
@@ -33174,7 +33174,7 @@
         <v>43544.583333333343</v>
       </c>
       <c r="B4091" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4092" spans="1:2" x14ac:dyDescent="0.3">
@@ -33182,7 +33182,7 @@
         <v>43544.625</v>
       </c>
       <c r="B4092" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4093" spans="1:2" x14ac:dyDescent="0.3">
@@ -33190,7 +33190,7 @@
         <v>43544.666666666657</v>
       </c>
       <c r="B4093" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4094" spans="1:2" x14ac:dyDescent="0.3">
@@ -33198,7 +33198,7 @@
         <v>43544.708333333343</v>
       </c>
       <c r="B4094" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4095" spans="1:2" x14ac:dyDescent="0.3">
@@ -33206,7 +33206,7 @@
         <v>43544.75</v>
       </c>
       <c r="B4095" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4096" spans="1:2" x14ac:dyDescent="0.3">
@@ -33214,7 +33214,7 @@
         <v>43544.791666666657</v>
       </c>
       <c r="B4096" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4097" spans="1:2" x14ac:dyDescent="0.3">
@@ -33222,7 +33222,7 @@
         <v>43544.833333333343</v>
       </c>
       <c r="B4097" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4098" spans="1:2" x14ac:dyDescent="0.3">
@@ -33230,7 +33230,7 @@
         <v>43544.875</v>
       </c>
       <c r="B4098" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4099" spans="1:2" x14ac:dyDescent="0.3">
@@ -33238,7 +33238,7 @@
         <v>43544.916666666657</v>
       </c>
       <c r="B4099" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4100" spans="1:2" x14ac:dyDescent="0.3">
@@ -33246,7 +33246,7 @@
         <v>43544.958333333343</v>
       </c>
       <c r="B4100" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4101" spans="1:2" x14ac:dyDescent="0.3">
@@ -33254,7 +33254,7 @@
         <v>43545</v>
       </c>
       <c r="B4101" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4102" spans="1:2" x14ac:dyDescent="0.3">
@@ -33262,7 +33262,7 @@
         <v>43545.041666666657</v>
       </c>
       <c r="B4102" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4103" spans="1:2" x14ac:dyDescent="0.3">
@@ -33270,7 +33270,7 @@
         <v>43545.083333333343</v>
       </c>
       <c r="B4103" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4104" spans="1:2" x14ac:dyDescent="0.3">
@@ -33278,7 +33278,7 @@
         <v>43545.125</v>
       </c>
       <c r="B4104" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4105" spans="1:2" x14ac:dyDescent="0.3">
@@ -33286,7 +33286,7 @@
         <v>43545.166666666657</v>
       </c>
       <c r="B4105" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4106" spans="1:2" x14ac:dyDescent="0.3">
@@ -33294,7 +33294,7 @@
         <v>43545.208333333343</v>
       </c>
       <c r="B4106" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4107" spans="1:2" x14ac:dyDescent="0.3">
@@ -33302,7 +33302,7 @@
         <v>43545.25</v>
       </c>
       <c r="B4107" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4108" spans="1:2" x14ac:dyDescent="0.3">
@@ -33310,7 +33310,7 @@
         <v>43545.291666666657</v>
       </c>
       <c r="B4108" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4109" spans="1:2" x14ac:dyDescent="0.3">
@@ -33318,7 +33318,7 @@
         <v>43545.333333333343</v>
       </c>
       <c r="B4109" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4110" spans="1:2" x14ac:dyDescent="0.3">
@@ -33326,7 +33326,7 @@
         <v>43545.375</v>
       </c>
       <c r="B4110" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4111" spans="1:2" x14ac:dyDescent="0.3">
@@ -33334,7 +33334,7 @@
         <v>43545.416666666657</v>
       </c>
       <c r="B4111" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4112" spans="1:2" x14ac:dyDescent="0.3">
@@ -33342,7 +33342,7 @@
         <v>43545.458333333343</v>
       </c>
       <c r="B4112" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4113" spans="1:2" x14ac:dyDescent="0.3">
@@ -33350,7 +33350,7 @@
         <v>43545.5</v>
       </c>
       <c r="B4113" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4114" spans="1:2" x14ac:dyDescent="0.3">
@@ -33358,7 +33358,7 @@
         <v>43545.541666666657</v>
       </c>
       <c r="B4114" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4115" spans="1:2" x14ac:dyDescent="0.3">
@@ -33366,7 +33366,7 @@
         <v>43545.583333333343</v>
       </c>
       <c r="B4115" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4116" spans="1:2" x14ac:dyDescent="0.3">
@@ -33374,7 +33374,7 @@
         <v>43545.625</v>
       </c>
       <c r="B4116" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4117" spans="1:2" x14ac:dyDescent="0.3">
@@ -33382,7 +33382,7 @@
         <v>43545.666666666657</v>
       </c>
       <c r="B4117" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4118" spans="1:2" x14ac:dyDescent="0.3">
@@ -33390,7 +33390,7 @@
         <v>43545.708333333343</v>
       </c>
       <c r="B4118" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4119" spans="1:2" x14ac:dyDescent="0.3">
@@ -33398,7 +33398,7 @@
         <v>43545.75</v>
       </c>
       <c r="B4119" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4120" spans="1:2" x14ac:dyDescent="0.3">
@@ -33406,7 +33406,7 @@
         <v>43545.791666666657</v>
       </c>
       <c r="B4120" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4121" spans="1:2" x14ac:dyDescent="0.3">
@@ -33414,7 +33414,7 @@
         <v>43545.833333333343</v>
       </c>
       <c r="B4121" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4122" spans="1:2" x14ac:dyDescent="0.3">
@@ -33422,7 +33422,7 @@
         <v>43545.875</v>
       </c>
       <c r="B4122" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4123" spans="1:2" x14ac:dyDescent="0.3">
@@ -33430,7 +33430,7 @@
         <v>43545.916666666657</v>
       </c>
       <c r="B4123" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4124" spans="1:2" x14ac:dyDescent="0.3">
@@ -33438,7 +33438,7 @@
         <v>43545.958333333343</v>
       </c>
       <c r="B4124" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4125" spans="1:2" x14ac:dyDescent="0.3">
@@ -33446,7 +33446,7 @@
         <v>43546</v>
       </c>
       <c r="B4125" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4126" spans="1:2" x14ac:dyDescent="0.3">
@@ -33454,7 +33454,7 @@
         <v>43546.041666666657</v>
       </c>
       <c r="B4126" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4127" spans="1:2" x14ac:dyDescent="0.3">
@@ -33462,7 +33462,7 @@
         <v>43546.083333333343</v>
       </c>
       <c r="B4127" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4128" spans="1:2" x14ac:dyDescent="0.3">
@@ -33470,7 +33470,7 @@
         <v>43546.125</v>
       </c>
       <c r="B4128" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4129" spans="1:2" x14ac:dyDescent="0.3">
@@ -33478,7 +33478,7 @@
         <v>43546.166666666657</v>
       </c>
       <c r="B4129" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4130" spans="1:2" x14ac:dyDescent="0.3">
@@ -33486,7 +33486,7 @@
         <v>43546.208333333343</v>
       </c>
       <c r="B4130" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4131" spans="1:2" x14ac:dyDescent="0.3">
@@ -33494,7 +33494,7 @@
         <v>43546.25</v>
       </c>
       <c r="B4131" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4132" spans="1:2" x14ac:dyDescent="0.3">
@@ -33502,7 +33502,7 @@
         <v>43546.291666666657</v>
       </c>
       <c r="B4132" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4133" spans="1:2" x14ac:dyDescent="0.3">
@@ -33510,7 +33510,7 @@
         <v>43546.333333333343</v>
       </c>
       <c r="B4133" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4134" spans="1:2" x14ac:dyDescent="0.3">
@@ -33518,7 +33518,7 @@
         <v>43546.375</v>
       </c>
       <c r="B4134" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4135" spans="1:2" x14ac:dyDescent="0.3">
@@ -33526,7 +33526,7 @@
         <v>43546.416666666657</v>
       </c>
       <c r="B4135" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4136" spans="1:2" x14ac:dyDescent="0.3">
@@ -33534,7 +33534,7 @@
         <v>43546.458333333343</v>
       </c>
       <c r="B4136" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4137" spans="1:2" x14ac:dyDescent="0.3">
@@ -33542,7 +33542,7 @@
         <v>43546.5</v>
       </c>
       <c r="B4137" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4138" spans="1:2" x14ac:dyDescent="0.3">
@@ -33550,7 +33550,7 @@
         <v>43546.541666666657</v>
       </c>
       <c r="B4138" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4139" spans="1:2" x14ac:dyDescent="0.3">
@@ -33558,7 +33558,7 @@
         <v>43546.583333333343</v>
       </c>
       <c r="B4139" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4140" spans="1:2" x14ac:dyDescent="0.3">
@@ -33566,7 +33566,7 @@
         <v>43546.625</v>
       </c>
       <c r="B4140" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4141" spans="1:2" x14ac:dyDescent="0.3">
@@ -33574,7 +33574,7 @@
         <v>43546.666666666657</v>
       </c>
       <c r="B4141" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4142" spans="1:2" x14ac:dyDescent="0.3">
@@ -33582,7 +33582,7 @@
         <v>43546.708333333343</v>
       </c>
       <c r="B4142" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4143" spans="1:2" x14ac:dyDescent="0.3">
@@ -33590,7 +33590,7 @@
         <v>43546.75</v>
       </c>
       <c r="B4143" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4144" spans="1:2" x14ac:dyDescent="0.3">
@@ -33598,7 +33598,7 @@
         <v>43546.791666666657</v>
       </c>
       <c r="B4144" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4145" spans="1:2" x14ac:dyDescent="0.3">
@@ -33606,7 +33606,7 @@
         <v>43546.833333333343</v>
       </c>
       <c r="B4145" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4146" spans="1:2" x14ac:dyDescent="0.3">
@@ -33614,7 +33614,7 @@
         <v>43546.875</v>
       </c>
       <c r="B4146" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4147" spans="1:2" x14ac:dyDescent="0.3">
@@ -33622,7 +33622,7 @@
         <v>43546.916666666657</v>
       </c>
       <c r="B4147" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4148" spans="1:2" x14ac:dyDescent="0.3">
@@ -33630,7 +33630,7 @@
         <v>43546.958333333343</v>
       </c>
       <c r="B4148" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4149" spans="1:2" x14ac:dyDescent="0.3">
@@ -33638,7 +33638,7 @@
         <v>43547</v>
       </c>
       <c r="B4149" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4150" spans="1:2" x14ac:dyDescent="0.3">
@@ -33646,7 +33646,7 @@
         <v>43547.041666666657</v>
       </c>
       <c r="B4150" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4151" spans="1:2" x14ac:dyDescent="0.3">
@@ -33654,7 +33654,7 @@
         <v>43547.083333333343</v>
       </c>
       <c r="B4151" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4152" spans="1:2" x14ac:dyDescent="0.3">
@@ -33662,7 +33662,7 @@
         <v>43547.125</v>
       </c>
       <c r="B4152" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4153" spans="1:2" x14ac:dyDescent="0.3">
@@ -33670,7 +33670,7 @@
         <v>43547.166666666657</v>
       </c>
       <c r="B4153" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4154" spans="1:2" x14ac:dyDescent="0.3">
@@ -33678,7 +33678,7 @@
         <v>43547.208333333343</v>
       </c>
       <c r="B4154" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4155" spans="1:2" x14ac:dyDescent="0.3">
@@ -33686,7 +33686,7 @@
         <v>43547.25</v>
       </c>
       <c r="B4155" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4156" spans="1:2" x14ac:dyDescent="0.3">
@@ -33694,7 +33694,7 @@
         <v>43547.291666666657</v>
       </c>
       <c r="B4156" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4157" spans="1:2" x14ac:dyDescent="0.3">
@@ -33702,7 +33702,7 @@
         <v>43547.333333333343</v>
       </c>
       <c r="B4157" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4158" spans="1:2" x14ac:dyDescent="0.3">
@@ -33710,7 +33710,7 @@
         <v>43547.375</v>
       </c>
       <c r="B4158" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4159" spans="1:2" x14ac:dyDescent="0.3">
@@ -33718,7 +33718,7 @@
         <v>43547.416666666657</v>
       </c>
       <c r="B4159" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4160" spans="1:2" x14ac:dyDescent="0.3">
@@ -33726,7 +33726,7 @@
         <v>43547.458333333343</v>
       </c>
       <c r="B4160" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4161" spans="1:2" x14ac:dyDescent="0.3">
@@ -33734,7 +33734,7 @@
         <v>43547.5</v>
       </c>
       <c r="B4161" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4162" spans="1:2" x14ac:dyDescent="0.3">
@@ -33742,7 +33742,7 @@
         <v>43547.541666666657</v>
       </c>
       <c r="B4162" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4163" spans="1:2" x14ac:dyDescent="0.3">
@@ -33750,7 +33750,7 @@
         <v>43547.583333333343</v>
       </c>
       <c r="B4163" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4164" spans="1:2" x14ac:dyDescent="0.3">
@@ -33758,7 +33758,7 @@
         <v>43547.625</v>
       </c>
       <c r="B4164" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4165" spans="1:2" x14ac:dyDescent="0.3">
@@ -33766,7 +33766,7 @@
         <v>43547.666666666657</v>
       </c>
       <c r="B4165" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4166" spans="1:2" x14ac:dyDescent="0.3">
@@ -33774,7 +33774,7 @@
         <v>43547.708333333343</v>
       </c>
       <c r="B4166" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4167" spans="1:2" x14ac:dyDescent="0.3">
@@ -33782,7 +33782,7 @@
         <v>43547.75</v>
       </c>
       <c r="B4167" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4168" spans="1:2" x14ac:dyDescent="0.3">
@@ -33790,7 +33790,7 @@
         <v>43547.791666666657</v>
       </c>
       <c r="B4168" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4169" spans="1:2" x14ac:dyDescent="0.3">
@@ -33798,7 +33798,7 @@
         <v>43547.833333333343</v>
       </c>
       <c r="B4169" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4170" spans="1:2" x14ac:dyDescent="0.3">
@@ -33806,7 +33806,7 @@
         <v>43547.875</v>
       </c>
       <c r="B4170" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4171" spans="1:2" x14ac:dyDescent="0.3">
@@ -33814,7 +33814,7 @@
         <v>43547.916666666657</v>
       </c>
       <c r="B4171" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4172" spans="1:2" x14ac:dyDescent="0.3">
@@ -33822,7 +33822,7 @@
         <v>43547.958333333343</v>
       </c>
       <c r="B4172" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4173" spans="1:2" x14ac:dyDescent="0.3">
@@ -33830,7 +33830,7 @@
         <v>43548</v>
       </c>
       <c r="B4173" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4174" spans="1:2" x14ac:dyDescent="0.3">
@@ -33838,7 +33838,7 @@
         <v>43548.041666666657</v>
       </c>
       <c r="B4174" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4175" spans="1:2" x14ac:dyDescent="0.3">
@@ -33846,7 +33846,7 @@
         <v>43548.083333333343</v>
       </c>
       <c r="B4175" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4176" spans="1:2" x14ac:dyDescent="0.3">
@@ -33854,7 +33854,7 @@
         <v>43548.125</v>
       </c>
       <c r="B4176" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4177" spans="1:2" x14ac:dyDescent="0.3">
@@ -33862,7 +33862,7 @@
         <v>43548.166666666657</v>
       </c>
       <c r="B4177" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4178" spans="1:2" x14ac:dyDescent="0.3">
@@ -33870,7 +33870,7 @@
         <v>43548.208333333343</v>
       </c>
       <c r="B4178" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4179" spans="1:2" x14ac:dyDescent="0.3">
@@ -33878,7 +33878,7 @@
         <v>43548.25</v>
       </c>
       <c r="B4179" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4180" spans="1:2" x14ac:dyDescent="0.3">
@@ -33886,7 +33886,7 @@
         <v>43548.291666666657</v>
       </c>
       <c r="B4180" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4181" spans="1:2" x14ac:dyDescent="0.3">
@@ -33894,7 +33894,7 @@
         <v>43548.333333333343</v>
       </c>
       <c r="B4181" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4182" spans="1:2" x14ac:dyDescent="0.3">
@@ -33902,7 +33902,7 @@
         <v>43548.375</v>
       </c>
       <c r="B4182" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4183" spans="1:2" x14ac:dyDescent="0.3">
@@ -33910,7 +33910,7 @@
         <v>43548.416666666657</v>
       </c>
       <c r="B4183" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4184" spans="1:2" x14ac:dyDescent="0.3">
@@ -33918,7 +33918,7 @@
         <v>43548.458333333343</v>
       </c>
       <c r="B4184" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4185" spans="1:2" x14ac:dyDescent="0.3">
@@ -33926,7 +33926,7 @@
         <v>43548.5</v>
       </c>
       <c r="B4185" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4186" spans="1:2" x14ac:dyDescent="0.3">
@@ -33934,7 +33934,7 @@
         <v>43548.541666666657</v>
       </c>
       <c r="B4186" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4187" spans="1:2" x14ac:dyDescent="0.3">
@@ -33942,7 +33942,7 @@
         <v>43548.583333333343</v>
       </c>
       <c r="B4187" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4188" spans="1:2" x14ac:dyDescent="0.3">
@@ -33950,7 +33950,7 @@
         <v>43548.625</v>
       </c>
       <c r="B4188" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4189" spans="1:2" x14ac:dyDescent="0.3">
@@ -33958,7 +33958,7 @@
         <v>43548.666666666657</v>
       </c>
       <c r="B4189" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4190" spans="1:2" x14ac:dyDescent="0.3">
@@ -33966,7 +33966,7 @@
         <v>43548.708333333343</v>
       </c>
       <c r="B4190" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4191" spans="1:2" x14ac:dyDescent="0.3">
@@ -33974,7 +33974,7 @@
         <v>43548.75</v>
       </c>
       <c r="B4191" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4192" spans="1:2" x14ac:dyDescent="0.3">
@@ -33982,7 +33982,7 @@
         <v>43548.791666666657</v>
       </c>
       <c r="B4192" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4193" spans="1:2" x14ac:dyDescent="0.3">
@@ -33990,7 +33990,7 @@
         <v>43548.833333333343</v>
       </c>
       <c r="B4193" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4194" spans="1:2" x14ac:dyDescent="0.3">
@@ -33998,7 +33998,7 @@
         <v>43548.875</v>
       </c>
       <c r="B4194" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4195" spans="1:2" x14ac:dyDescent="0.3">
@@ -34006,7 +34006,7 @@
         <v>43548.916666666657</v>
       </c>
       <c r="B4195" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4196" spans="1:2" x14ac:dyDescent="0.3">
@@ -34014,7 +34014,7 @@
         <v>43548.958333333343</v>
       </c>
       <c r="B4196" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4197" spans="1:2" x14ac:dyDescent="0.3">
@@ -34022,7 +34022,7 @@
         <v>43549</v>
       </c>
       <c r="B4197" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4198" spans="1:2" x14ac:dyDescent="0.3">
@@ -34030,7 +34030,7 @@
         <v>43549.041666666657</v>
       </c>
       <c r="B4198" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4199" spans="1:2" x14ac:dyDescent="0.3">
@@ -34038,7 +34038,7 @@
         <v>43549.083333333343</v>
       </c>
       <c r="B4199" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4200" spans="1:2" x14ac:dyDescent="0.3">
@@ -34046,7 +34046,7 @@
         <v>43549.125</v>
       </c>
       <c r="B4200" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4201" spans="1:2" x14ac:dyDescent="0.3">
@@ -34054,7 +34054,7 @@
         <v>43549.166666666657</v>
       </c>
       <c r="B4201" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4202" spans="1:2" x14ac:dyDescent="0.3">
@@ -34062,7 +34062,7 @@
         <v>43549.208333333343</v>
       </c>
       <c r="B4202" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4203" spans="1:2" x14ac:dyDescent="0.3">
@@ -34070,7 +34070,7 @@
         <v>43549.25</v>
       </c>
       <c r="B4203" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4204" spans="1:2" x14ac:dyDescent="0.3">
@@ -34078,7 +34078,7 @@
         <v>43549.291666666657</v>
       </c>
       <c r="B4204" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4205" spans="1:2" x14ac:dyDescent="0.3">
@@ -34086,7 +34086,7 @@
         <v>43549.333333333343</v>
       </c>
       <c r="B4205" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4206" spans="1:2" x14ac:dyDescent="0.3">
@@ -34094,7 +34094,7 @@
         <v>43549.375</v>
       </c>
       <c r="B4206" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4207" spans="1:2" x14ac:dyDescent="0.3">
@@ -34102,7 +34102,7 @@
         <v>43549.416666666657</v>
       </c>
       <c r="B4207" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4208" spans="1:2" x14ac:dyDescent="0.3">
@@ -34110,7 +34110,7 @@
         <v>43549.458333333343</v>
       </c>
       <c r="B4208" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4209" spans="1:2" x14ac:dyDescent="0.3">
@@ -34118,7 +34118,7 @@
         <v>43549.5</v>
       </c>
       <c r="B4209" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4210" spans="1:2" x14ac:dyDescent="0.3">
@@ -34126,7 +34126,7 @@
         <v>43549.541666666657</v>
       </c>
       <c r="B4210" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4211" spans="1:2" x14ac:dyDescent="0.3">
@@ -34134,7 +34134,7 @@
         <v>43549.583333333343</v>
       </c>
       <c r="B4211" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4212" spans="1:2" x14ac:dyDescent="0.3">
@@ -34142,7 +34142,7 @@
         <v>43549.625</v>
       </c>
       <c r="B4212" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4213" spans="1:2" x14ac:dyDescent="0.3">
@@ -34150,7 +34150,7 @@
         <v>43549.666666666657</v>
       </c>
       <c r="B4213" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4214" spans="1:2" x14ac:dyDescent="0.3">
@@ -34158,7 +34158,7 @@
         <v>43549.708333333343</v>
       </c>
       <c r="B4214" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4215" spans="1:2" x14ac:dyDescent="0.3">
@@ -34166,7 +34166,7 @@
         <v>43549.75</v>
       </c>
       <c r="B4215" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4216" spans="1:2" x14ac:dyDescent="0.3">
@@ -34174,7 +34174,7 @@
         <v>43549.791666666657</v>
       </c>
       <c r="B4216" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4217" spans="1:2" x14ac:dyDescent="0.3">
@@ -34182,7 +34182,7 @@
         <v>43549.833333333343</v>
       </c>
       <c r="B4217" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4218" spans="1:2" x14ac:dyDescent="0.3">
@@ -34190,7 +34190,7 @@
         <v>43549.875</v>
       </c>
       <c r="B4218" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4219" spans="1:2" x14ac:dyDescent="0.3">
@@ -34198,7 +34198,7 @@
         <v>43549.916666666657</v>
       </c>
       <c r="B4219" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4220" spans="1:2" x14ac:dyDescent="0.3">
@@ -34206,7 +34206,7 @@
         <v>43549.958333333343</v>
       </c>
       <c r="B4220" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4221" spans="1:2" x14ac:dyDescent="0.3">
@@ -34214,7 +34214,7 @@
         <v>43550</v>
       </c>
       <c r="B4221" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4222" spans="1:2" x14ac:dyDescent="0.3">
@@ -34222,7 +34222,7 @@
         <v>43550.041666666657</v>
       </c>
       <c r="B4222" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4223" spans="1:2" x14ac:dyDescent="0.3">
@@ -34230,7 +34230,7 @@
         <v>43550.083333333343</v>
       </c>
       <c r="B4223" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4224" spans="1:2" x14ac:dyDescent="0.3">
@@ -34238,7 +34238,7 @@
         <v>43550.125</v>
       </c>
       <c r="B4224" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4225" spans="1:2" x14ac:dyDescent="0.3">
@@ -34246,7 +34246,7 @@
         <v>43550.166666666657</v>
       </c>
       <c r="B4225" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4226" spans="1:2" x14ac:dyDescent="0.3">
@@ -34254,7 +34254,7 @@
         <v>43550.208333333343</v>
       </c>
       <c r="B4226" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4227" spans="1:2" x14ac:dyDescent="0.3">
@@ -34262,7 +34262,7 @@
         <v>43550.25</v>
       </c>
       <c r="B4227" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4228" spans="1:2" x14ac:dyDescent="0.3">
@@ -34270,7 +34270,7 @@
         <v>43550.291666666657</v>
       </c>
       <c r="B4228" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4229" spans="1:2" x14ac:dyDescent="0.3">
@@ -34278,7 +34278,7 @@
         <v>43550.333333333343</v>
       </c>
       <c r="B4229" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4230" spans="1:2" x14ac:dyDescent="0.3">
@@ -34286,7 +34286,7 @@
         <v>43550.375</v>
       </c>
       <c r="B4230" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4231" spans="1:2" x14ac:dyDescent="0.3">
@@ -34294,7 +34294,7 @@
         <v>43550.416666666657</v>
       </c>
       <c r="B4231" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4232" spans="1:2" x14ac:dyDescent="0.3">
@@ -34302,7 +34302,7 @@
         <v>43550.458333333343</v>
       </c>
       <c r="B4232" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4233" spans="1:2" x14ac:dyDescent="0.3">
@@ -34310,7 +34310,7 @@
         <v>43550.5</v>
       </c>
       <c r="B4233" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4234" spans="1:2" x14ac:dyDescent="0.3">
@@ -34318,7 +34318,7 @@
         <v>43550.541666666657</v>
       </c>
       <c r="B4234" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4235" spans="1:2" x14ac:dyDescent="0.3">
@@ -34326,7 +34326,7 @@
         <v>43550.583333333343</v>
       </c>
       <c r="B4235" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4236" spans="1:2" x14ac:dyDescent="0.3">
@@ -34334,7 +34334,7 @@
         <v>43550.625</v>
       </c>
       <c r="B4236" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4237" spans="1:2" x14ac:dyDescent="0.3">
@@ -34342,7 +34342,7 @@
         <v>43550.666666666657</v>
       </c>
       <c r="B4237" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4238" spans="1:2" x14ac:dyDescent="0.3">
@@ -34350,7 +34350,7 @@
         <v>43550.708333333343</v>
       </c>
       <c r="B4238" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4239" spans="1:2" x14ac:dyDescent="0.3">
@@ -34358,7 +34358,7 @@
         <v>43550.75</v>
       </c>
       <c r="B4239" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4240" spans="1:2" x14ac:dyDescent="0.3">
@@ -34366,7 +34366,7 @@
         <v>43550.791666666657</v>
       </c>
       <c r="B4240" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4241" spans="1:2" x14ac:dyDescent="0.3">
@@ -34374,7 +34374,7 @@
         <v>43550.833333333343</v>
       </c>
       <c r="B4241" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4242" spans="1:2" x14ac:dyDescent="0.3">
@@ -34382,7 +34382,7 @@
         <v>43550.875</v>
       </c>
       <c r="B4242" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4243" spans="1:2" x14ac:dyDescent="0.3">
@@ -34390,7 +34390,7 @@
         <v>43550.916666666657</v>
       </c>
       <c r="B4243" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4244" spans="1:2" x14ac:dyDescent="0.3">
@@ -34398,7 +34398,7 @@
         <v>43550.958333333343</v>
       </c>
       <c r="B4244" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4245" spans="1:2" x14ac:dyDescent="0.3">
@@ -34406,7 +34406,7 @@
         <v>43551</v>
       </c>
       <c r="B4245" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4246" spans="1:2" x14ac:dyDescent="0.3">
@@ -34414,7 +34414,7 @@
         <v>43551.041666666657</v>
       </c>
       <c r="B4246" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4247" spans="1:2" x14ac:dyDescent="0.3">
@@ -34422,7 +34422,7 @@
         <v>43551.083333333343</v>
       </c>
       <c r="B4247" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4248" spans="1:2" x14ac:dyDescent="0.3">
@@ -34430,7 +34430,7 @@
         <v>43551.125</v>
       </c>
       <c r="B4248" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4249" spans="1:2" x14ac:dyDescent="0.3">
@@ -34438,7 +34438,7 @@
         <v>43551.166666666657</v>
       </c>
       <c r="B4249" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4250" spans="1:2" x14ac:dyDescent="0.3">
@@ -34446,7 +34446,7 @@
         <v>43551.208333333343</v>
       </c>
       <c r="B4250" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4251" spans="1:2" x14ac:dyDescent="0.3">
@@ -34454,7 +34454,7 @@
         <v>43551.25</v>
       </c>
       <c r="B4251" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4252" spans="1:2" x14ac:dyDescent="0.3">
@@ -34462,7 +34462,7 @@
         <v>43551.291666666657</v>
       </c>
       <c r="B4252" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4253" spans="1:2" x14ac:dyDescent="0.3">
@@ -34470,7 +34470,7 @@
         <v>43551.333333333343</v>
       </c>
       <c r="B4253" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4254" spans="1:2" x14ac:dyDescent="0.3">
@@ -34478,7 +34478,7 @@
         <v>43551.375</v>
       </c>
       <c r="B4254" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4255" spans="1:2" x14ac:dyDescent="0.3">
@@ -34486,7 +34486,7 @@
         <v>43551.416666666657</v>
       </c>
       <c r="B4255" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4256" spans="1:2" x14ac:dyDescent="0.3">
@@ -34494,7 +34494,7 @@
         <v>43551.458333333343</v>
       </c>
       <c r="B4256" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4257" spans="1:2" x14ac:dyDescent="0.3">
@@ -34502,7 +34502,7 @@
         <v>43551.5</v>
       </c>
       <c r="B4257" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4258" spans="1:2" x14ac:dyDescent="0.3">
@@ -34510,7 +34510,7 @@
         <v>43551.541666666657</v>
       </c>
       <c r="B4258" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4259" spans="1:2" x14ac:dyDescent="0.3">
@@ -34518,7 +34518,7 @@
         <v>43551.583333333343</v>
       </c>
       <c r="B4259" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4260" spans="1:2" x14ac:dyDescent="0.3">
@@ -34526,7 +34526,7 @@
         <v>43551.625</v>
       </c>
       <c r="B4260" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4261" spans="1:2" x14ac:dyDescent="0.3">
@@ -34534,7 +34534,7 @@
         <v>43551.666666666657</v>
       </c>
       <c r="B4261" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4262" spans="1:2" x14ac:dyDescent="0.3">
@@ -34542,7 +34542,7 @@
         <v>43551.708333333343</v>
       </c>
       <c r="B4262" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4263" spans="1:2" x14ac:dyDescent="0.3">
@@ -34550,7 +34550,7 @@
         <v>43551.75</v>
       </c>
       <c r="B4263" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4264" spans="1:2" x14ac:dyDescent="0.3">
@@ -34558,7 +34558,7 @@
         <v>43551.791666666657</v>
       </c>
       <c r="B4264" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4265" spans="1:2" x14ac:dyDescent="0.3">
@@ -34566,7 +34566,7 @@
         <v>43551.833333333343</v>
       </c>
       <c r="B4265" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4266" spans="1:2" x14ac:dyDescent="0.3">
@@ -34574,7 +34574,7 @@
         <v>43551.875</v>
       </c>
       <c r="B4266" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4267" spans="1:2" x14ac:dyDescent="0.3">
@@ -34582,7 +34582,7 @@
         <v>43551.916666666657</v>
       </c>
       <c r="B4267" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4268" spans="1:2" x14ac:dyDescent="0.3">
@@ -34590,7 +34590,7 @@
         <v>43551.958333333343</v>
       </c>
       <c r="B4268" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4269" spans="1:2" x14ac:dyDescent="0.3">
@@ -34598,7 +34598,7 @@
         <v>43552</v>
       </c>
       <c r="B4269" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4270" spans="1:2" x14ac:dyDescent="0.3">
@@ -34606,7 +34606,7 @@
         <v>43552.041666666657</v>
       </c>
       <c r="B4270" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4271" spans="1:2" x14ac:dyDescent="0.3">
@@ -34614,7 +34614,7 @@
         <v>43552.083333333343</v>
       </c>
       <c r="B4271" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4272" spans="1:2" x14ac:dyDescent="0.3">
@@ -34622,7 +34622,7 @@
         <v>43552.125</v>
       </c>
       <c r="B4272" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4273" spans="1:2" x14ac:dyDescent="0.3">
@@ -34630,7 +34630,7 @@
         <v>43552.166666666657</v>
       </c>
       <c r="B4273" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4274" spans="1:2" x14ac:dyDescent="0.3">
@@ -34638,7 +34638,7 @@
         <v>43552.208333333343</v>
       </c>
       <c r="B4274" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4275" spans="1:2" x14ac:dyDescent="0.3">
@@ -34646,7 +34646,7 @@
         <v>43552.25</v>
       </c>
       <c r="B4275" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4276" spans="1:2" x14ac:dyDescent="0.3">
@@ -34654,7 +34654,7 @@
         <v>43552.291666666657</v>
       </c>
       <c r="B4276" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4277" spans="1:2" x14ac:dyDescent="0.3">
@@ -34662,7 +34662,7 @@
         <v>43552.333333333343</v>
       </c>
       <c r="B4277" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4278" spans="1:2" x14ac:dyDescent="0.3">
@@ -34670,7 +34670,7 @@
         <v>43552.375</v>
       </c>
       <c r="B4278" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4279" spans="1:2" x14ac:dyDescent="0.3">
@@ -34678,7 +34678,7 @@
         <v>43552.416666666657</v>
       </c>
       <c r="B4279" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4280" spans="1:2" x14ac:dyDescent="0.3">
@@ -34686,7 +34686,7 @@
         <v>43552.458333333343</v>
       </c>
       <c r="B4280" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4281" spans="1:2" x14ac:dyDescent="0.3">
@@ -34694,7 +34694,7 @@
         <v>43552.5</v>
       </c>
       <c r="B4281" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4282" spans="1:2" x14ac:dyDescent="0.3">
@@ -34702,7 +34702,7 @@
         <v>43552.541666666657</v>
       </c>
       <c r="B4282" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4283" spans="1:2" x14ac:dyDescent="0.3">
@@ -34710,7 +34710,7 @@
         <v>43552.583333333343</v>
       </c>
       <c r="B4283" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4284" spans="1:2" x14ac:dyDescent="0.3">
@@ -34718,7 +34718,7 @@
         <v>43552.625</v>
       </c>
       <c r="B4284" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4285" spans="1:2" x14ac:dyDescent="0.3">
@@ -34726,7 +34726,7 @@
         <v>43552.666666666657</v>
       </c>
       <c r="B4285" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4286" spans="1:2" x14ac:dyDescent="0.3">
@@ -34734,7 +34734,7 @@
         <v>43552.708333333343</v>
       </c>
       <c r="B4286" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4287" spans="1:2" x14ac:dyDescent="0.3">
@@ -34742,7 +34742,7 @@
         <v>43552.75</v>
       </c>
       <c r="B4287" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4288" spans="1:2" x14ac:dyDescent="0.3">
@@ -34750,7 +34750,7 @@
         <v>43552.791666666657</v>
       </c>
       <c r="B4288" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4289" spans="1:2" x14ac:dyDescent="0.3">
@@ -34758,7 +34758,7 @@
         <v>43552.833333333343</v>
       </c>
       <c r="B4289" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4290" spans="1:2" x14ac:dyDescent="0.3">
@@ -34766,7 +34766,7 @@
         <v>43552.875</v>
       </c>
       <c r="B4290" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4291" spans="1:2" x14ac:dyDescent="0.3">
@@ -34774,7 +34774,7 @@
         <v>43552.916666666657</v>
       </c>
       <c r="B4291" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4292" spans="1:2" x14ac:dyDescent="0.3">
@@ -34782,7 +34782,7 @@
         <v>43552.958333333343</v>
       </c>
       <c r="B4292" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4293" spans="1:2" x14ac:dyDescent="0.3">
@@ -34790,7 +34790,7 @@
         <v>43553</v>
       </c>
       <c r="B4293" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4294" spans="1:2" x14ac:dyDescent="0.3">
@@ -34798,7 +34798,7 @@
         <v>43553.041666666657</v>
       </c>
       <c r="B4294" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4295" spans="1:2" x14ac:dyDescent="0.3">
@@ -34806,7 +34806,7 @@
         <v>43553.083333333343</v>
       </c>
       <c r="B4295" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4296" spans="1:2" x14ac:dyDescent="0.3">
@@ -34814,7 +34814,7 @@
         <v>43553.125</v>
       </c>
       <c r="B4296" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4297" spans="1:2" x14ac:dyDescent="0.3">
@@ -34822,7 +34822,7 @@
         <v>43553.166666666657</v>
       </c>
       <c r="B4297" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4298" spans="1:2" x14ac:dyDescent="0.3">
@@ -34830,7 +34830,7 @@
         <v>43553.208333333343</v>
       </c>
       <c r="B4298" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4299" spans="1:2" x14ac:dyDescent="0.3">
@@ -34838,7 +34838,7 @@
         <v>43553.25</v>
       </c>
       <c r="B4299" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4300" spans="1:2" x14ac:dyDescent="0.3">
@@ -34846,7 +34846,7 @@
         <v>43553.291666666657</v>
       </c>
       <c r="B4300" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4301" spans="1:2" x14ac:dyDescent="0.3">
@@ -34854,7 +34854,7 @@
         <v>43553.333333333343</v>
       </c>
       <c r="B4301" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4302" spans="1:2" x14ac:dyDescent="0.3">
@@ -34862,7 +34862,7 @@
         <v>43553.375</v>
       </c>
       <c r="B4302" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4303" spans="1:2" x14ac:dyDescent="0.3">
@@ -34870,7 +34870,7 @@
         <v>43553.416666666657</v>
       </c>
       <c r="B4303" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4304" spans="1:2" x14ac:dyDescent="0.3">
@@ -34878,7 +34878,7 @@
         <v>43553.458333333343</v>
       </c>
       <c r="B4304" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4305" spans="1:2" x14ac:dyDescent="0.3">
@@ -34886,7 +34886,7 @@
         <v>43553.5</v>
       </c>
       <c r="B4305" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4306" spans="1:2" x14ac:dyDescent="0.3">
